--- a/Distanzen.xlsx
+++ b/Distanzen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikto\Documents\SchulungPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7A19EF8-921A-474E-A600-3734BCA1FE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904AFA93-E8CE-4AD7-8AA5-1177108C98C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -230,7 +230,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,12 +289,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -358,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -388,48 +382,45 @@
     <xf numFmtId="164" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -531,11 +522,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Abstände!$A$2:$A$7</c:f>
+              <c:f>#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 2 3 4 5 6</c:v>
+                  <c:v>#BEZUG!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -583,211 +574,26 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:ln w="114300">
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:noFill/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-A945-44F8-B37B-4AB69275226B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:ln w="114300">
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:noFill/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-A945-44F8-B37B-4AB69275226B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:ln w="114300">
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:noFill/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-A945-44F8-B37B-4AB69275226B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:ln w="114300">
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:noFill/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-A945-44F8-B37B-4AB69275226B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:ln w="114300">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:noFill/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-A945-44F8-B37B-4AB69275226B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Abstände!$B$2:$B$7</c:f>
+              <c:f>#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Abstände!$C$2:$C$7</c:f>
+              <c:f>#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1999,9 +1805,9 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2302669" cy="838178"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="2302669" cy="1117294"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="Textfeld 3">
@@ -2015,8 +1821,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9727407" y="178594"/>
-              <a:ext cx="2302669" cy="838178"/>
+              <a:off x="9076776" y="202406"/>
+              <a:ext cx="2302669" cy="1117294"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2301,6 +2107,203 @@
                         </m:nary>
                       </m:e>
                     </m:rad>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑎</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                                <m:r>
+                                  <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑏</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:e>
+                            </m:d>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑎</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                                <m:r>
+                                  <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑏</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:e>
+                            </m:d>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:e>
+                    </m:rad>
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
@@ -2309,7 +2312,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="Textfeld 3">
@@ -2323,8 +2326,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9727407" y="178594"/>
-              <a:ext cx="2302669" cy="838178"/>
+              <a:off x="9076776" y="202406"/>
+              <a:ext cx="2302669" cy="1117294"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2374,7 +2377,7 @@
                 <a:rPr lang="de-DE" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>2 )</a:t>
+                <a:t>2 )=√((𝑎_1−𝑏_1 )^2+(𝑎_2−𝑏_2 )^2 )</a:t>
               </a:r>
               <a:endParaRPr lang="de-DE" sz="1400"/>
             </a:p>
@@ -7960,14 +7963,1303 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>307775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57745</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3143745" cy="434543"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="Textfeld 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B14901-C7D2-97B6-5439-BBF959F0F867}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9148166" y="1391245"/>
+              <a:ext cx="3143745" cy="434543"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐸𝐷</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>40,53</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>22,38</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>40−22</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:d>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>53</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>−38</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:d>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-DE" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>18</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:d>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>(15)</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:e>
+                    </m:rad>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>324+225</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:rad>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>549</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:rad>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=23,43</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="Textfeld 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B14901-C7D2-97B6-5439-BBF959F0F867}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9148166" y="1391245"/>
+              <a:ext cx="3143745" cy="434543"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑^𝐸𝐷 ((40,53),(22,38))=√((40−22)^2+(53−38)^2 )</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-DE" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=√((18)^2+〖(15)〗^2 )=√(324+225)=√549=23,43</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>103415</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Gerader Verbinder 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{488286AB-5D38-FC3C-CA70-E148EF6BA269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2400300" y="2880802"/>
+          <a:ext cx="21772" cy="1185012"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>202577</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>96610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Gerader Verbinder 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2174DEEA-67BF-4C8B-9FA0-4700C7B94A13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1557848" y="4048124"/>
+          <a:ext cx="837009" cy="1362"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>565547</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>113110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>773907</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>136922</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Ellipse 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE086206-7E96-4A45-A276-035E8841285E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12327561" y="8838010"/>
+          <a:ext cx="208360" cy="214312"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>134542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>110728</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>158354</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Ellipse 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87BC4B8D-E097-476D-B410-70F47BEBB1B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12628789" y="9049942"/>
+          <a:ext cx="207339" cy="214312"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>173832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>656035</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>197644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Ellipse 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B96FF7F4-179E-464D-B15F-738146296E63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12181284" y="9282113"/>
+          <a:ext cx="208360" cy="214312"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>939402</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>88107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>183356</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>111919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Ellipse 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D212B8E7-D6EC-4C68-96AA-4B2DB49421AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13637418" y="8815388"/>
+          <a:ext cx="208360" cy="214312"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>812006</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>55959</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>121443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Ellipse 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F15B648D-A86C-4AE1-8B58-F2666D5398FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12574020" y="9405938"/>
+          <a:ext cx="207339" cy="213291"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>652737</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>39658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>861097</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Ellipse 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AD2FBE-C95A-4935-B109-65F80A770C93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="652737" y="3615196"/>
+          <a:ext cx="208360" cy="214312"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>67407</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>185647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271187</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>18959</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Ellipse 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3316B1A-882B-4860-B95D-B2614D4290C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1422888" y="3951685"/>
+          <a:ext cx="203780" cy="214312"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>915864</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>164397</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>168153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Ellipse 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49114D87-75D9-4C89-8A0E-1BF49294973B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2271345" y="4291379"/>
+          <a:ext cx="208360" cy="214312"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>823</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>204604</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>126389</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Ellipse 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B774477-5A72-42ED-B3DD-ED1411FE8C2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2316131" y="2769577"/>
+          <a:ext cx="203781" cy="214312"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>569484</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>58066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>773264</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>77298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Ellipse 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21620FD-B4B0-40D3-89EF-D32307EDBF2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2884792" y="4586104"/>
+          <a:ext cx="203780" cy="209732"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>181706</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>40299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390066</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>64111</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Ellipse 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C60FEFF-D523-4CF4-9053-342EC914DFC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1537187" y="5330337"/>
+          <a:ext cx="208360" cy="214312"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>67617</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271397</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23983</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Ellipse 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91362E7B-E7AF-40EA-9DA9-DCF511188F24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1422888" y="3951685"/>
+          <a:ext cx="203780" cy="214312"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Abstände"/>
       <sheetName val="Standartisierung"/>
       <sheetName val="Standartisierung mehrere"/>
       <sheetName val="Tabelle1"/>
@@ -7975,79 +9267,11 @@
       <sheetName val="Tabelle3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2">
-            <v>40</v>
-          </cell>
-          <cell r="C2">
-            <v>53</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3">
-            <v>22</v>
-          </cell>
-          <cell r="C3">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4">
-            <v>35</v>
-          </cell>
-          <cell r="C4">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5">
-            <v>26</v>
-          </cell>
-          <cell r="C5">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6">
-            <v>8</v>
-          </cell>
-          <cell r="C6">
-            <v>41</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7">
-            <v>45</v>
-          </cell>
-          <cell r="C7">
-            <v>30</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8352,15 +9576,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B38" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="19" customWidth="1"/>
     <col min="7" max="12" width="7.7109375" customWidth="1"/>
     <col min="13" max="18" width="14.42578125" style="10"/>
   </cols>
@@ -8425,7 +9649,7 @@
       </c>
       <c r="I2" s="12" cm="1">
         <f t="array" ref="I2">SQRT((INDEX($B$2:$B$7,$F2)-INDEX($B$2:$B$7,I$1))^2 + (INDEX($C$2:$C$7,$F2)-INDEX($C$2:$C$7,I$1))^2)</f>
-        <v>21.587033144922902</v>
+        <v>21.840329667841555</v>
       </c>
       <c r="J2" s="12" cm="1">
         <f t="array" ref="J2">SQRT((INDEX($B$2:$B$7,$F2)-INDEX($B$2:$B$7,J$1))^2 + (INDEX($C$2:$C$7,$F2)-INDEX($C$2:$C$7,J$1))^2)</f>
@@ -8441,7 +9665,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="11">
@@ -8451,7 +9675,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="13">
+      <c r="F3" s="5">
         <v>2</v>
       </c>
       <c r="G3" s="12" cm="1">
@@ -8464,7 +9688,7 @@
       </c>
       <c r="I3" s="12" cm="1">
         <f t="array" ref="I3">SQRT((INDEX($B$2:$B$7,$F3)-INDEX($B$2:$B$7,I$1))^2 + (INDEX($C$2:$C$7,$F3)-INDEX($C$2:$C$7,I$1))^2)</f>
-        <v>14.317821063276353</v>
+        <v>13.416407864998739</v>
       </c>
       <c r="J3" s="12" cm="1">
         <f t="array" ref="J3">SQRT((INDEX($B$2:$B$7,$F3)-INDEX($B$2:$B$7,J$1))^2 + (INDEX($C$2:$C$7,$F3)-INDEX($C$2:$C$7,J$1))^2)</f>
@@ -8487,7 +9711,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="11">
         <v>32</v>
@@ -8499,11 +9723,11 @@
       </c>
       <c r="G4" s="12" cm="1">
         <f t="array" ref="G4">SQRT((INDEX($B$2:$B$7,$F4)-INDEX($B$2:$B$7,G$1))^2 + (INDEX($C$2:$C$7,$F4)-INDEX($C$2:$C$7,G$1))^2)</f>
-        <v>21.587033144922902</v>
+        <v>21.840329667841555</v>
       </c>
       <c r="H4" s="12" cm="1">
         <f t="array" ref="H4">SQRT((INDEX($B$2:$B$7,$F4)-INDEX($B$2:$B$7,H$1))^2 + (INDEX($C$2:$C$7,$F4)-INDEX($C$2:$C$7,H$1))^2)</f>
-        <v>14.317821063276353</v>
+        <v>13.416407864998739</v>
       </c>
       <c r="I4" s="12" cm="1">
         <f t="array" ref="I4">SQRT((INDEX($B$2:$B$7,$F4)-INDEX($B$2:$B$7,I$1))^2 + (INDEX($C$2:$C$7,$F4)-INDEX($C$2:$C$7,I$1))^2)</f>
@@ -8511,15 +9735,15 @@
       </c>
       <c r="J4" s="12" cm="1">
         <f t="array" ref="J4">SQRT((INDEX($B$2:$B$7,$F4)-INDEX($B$2:$B$7,J$1))^2 + (INDEX($C$2:$C$7,$F4)-INDEX($C$2:$C$7,J$1))^2)</f>
-        <v>15.811388300841896</v>
+        <v>15.264337522473747</v>
       </c>
       <c r="K4" s="12" cm="1">
         <f t="array" ref="K4">SQRT((INDEX($B$2:$B$7,$F4)-INDEX($B$2:$B$7,K$1))^2 + (INDEX($C$2:$C$7,$F4)-INDEX($C$2:$C$7,K$1))^2)</f>
-        <v>28.460498941515414</v>
+        <v>27.513632984395208</v>
       </c>
       <c r="L4" s="12" cm="1">
         <f t="array" ref="L4">SQRT((INDEX($B$2:$B$7,$F4)-INDEX($B$2:$B$7,L$1))^2 + (INDEX($C$2:$C$7,$F4)-INDEX($C$2:$C$7,L$1))^2)</f>
-        <v>10.198039027185569</v>
+        <v>11.180339887498949</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
@@ -8547,7 +9771,7 @@
       </c>
       <c r="I5" s="12" cm="1">
         <f t="array" ref="I5">SQRT((INDEX($B$2:$B$7,$F5)-INDEX($B$2:$B$7,I$1))^2 + (INDEX($C$2:$C$7,$F5)-INDEX($C$2:$C$7,I$1))^2)</f>
-        <v>15.811388300841896</v>
+        <v>15.264337522473747</v>
       </c>
       <c r="J5" s="12" cm="1">
         <f t="array" ref="J5">SQRT((INDEX($B$2:$B$7,$F5)-INDEX($B$2:$B$7,J$1))^2 + (INDEX($C$2:$C$7,$F5)-INDEX($C$2:$C$7,J$1))^2)</f>
@@ -8587,7 +9811,7 @@
       </c>
       <c r="I6" s="12" cm="1">
         <f t="array" ref="I6">SQRT((INDEX($B$2:$B$7,$F6)-INDEX($B$2:$B$7,I$1))^2 + (INDEX($C$2:$C$7,$F6)-INDEX($C$2:$C$7,I$1))^2)</f>
-        <v>28.460498941515414</v>
+        <v>27.513632984395208</v>
       </c>
       <c r="J6" s="12" cm="1">
         <f t="array" ref="J6">SQRT((INDEX($B$2:$B$7,$F6)-INDEX($B$2:$B$7,J$1))^2 + (INDEX($C$2:$C$7,$F6)-INDEX($C$2:$C$7,J$1))^2)</f>
@@ -8627,7 +9851,7 @@
       </c>
       <c r="I7" s="12" cm="1">
         <f t="array" ref="I7">SQRT((INDEX($B$2:$B$7,$F7)-INDEX($B$2:$B$7,I$1))^2 + (INDEX($C$2:$C$7,$F7)-INDEX($C$2:$C$7,I$1))^2)</f>
-        <v>10.198039027185569</v>
+        <v>11.180339887498949</v>
       </c>
       <c r="J7" s="12" cm="1">
         <f t="array" ref="J7">SQRT((INDEX($B$2:$B$7,$F7)-INDEX($B$2:$B$7,J$1))^2 + (INDEX($C$2:$C$7,$F7)-INDEX($C$2:$C$7,J$1))^2)</f>
@@ -8655,8 +9879,8 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="15"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
@@ -8685,7 +9909,7 @@
         <v>6</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="15"/>
+      <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
@@ -8693,27 +9917,27 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="16" cm="1">
+      <c r="G10" s="15" cm="1">
         <f t="array" ref="G10">(INDEX($B$2:$B$7,$F10)-INDEX($B$2:$B$7,G$1))^2 + (INDEX($C$2:$C$7,$F10)-INDEX($C$2:$C$7,G$1))^2</f>
         <v>0</v>
       </c>
-      <c r="H10" s="16" cm="1">
+      <c r="H10" s="15" cm="1">
         <f t="array" ref="H10">(INDEX($B$2:$B$7,$F10)-INDEX($B$2:$B$7,H$1))^2 + (INDEX($C$2:$C$7,$F10)-INDEX($C$2:$C$7,H$1))^2</f>
         <v>549</v>
       </c>
-      <c r="I10" s="16" cm="1">
+      <c r="I10" s="15" cm="1">
         <f t="array" ref="I10">(INDEX($B$2:$B$7,$F10)-INDEX($B$2:$B$7,I$1))^2 + (INDEX($C$2:$C$7,$F10)-INDEX($C$2:$C$7,I$1))^2</f>
-        <v>466</v>
-      </c>
-      <c r="J10" s="16" cm="1">
+        <v>477</v>
+      </c>
+      <c r="J10" s="15" cm="1">
         <f t="array" ref="J10">(INDEX($B$2:$B$7,$F10)-INDEX($B$2:$B$7,J$1))^2 + (INDEX($C$2:$C$7,$F10)-INDEX($C$2:$C$7,J$1))^2</f>
         <v>1352</v>
       </c>
-      <c r="K10" s="16" cm="1">
+      <c r="K10" s="15" cm="1">
         <f t="array" ref="K10">(INDEX($B$2:$B$7,$F10)-INDEX($B$2:$B$7,K$1))^2 + (INDEX($C$2:$C$7,$F10)-INDEX($C$2:$C$7,K$1))^2</f>
         <v>1168</v>
       </c>
-      <c r="L10" s="16" cm="1">
+      <c r="L10" s="15" cm="1">
         <f t="array" ref="L10">(INDEX($B$2:$B$7,$F10)-INDEX($B$2:$B$7,L$1))^2 + (INDEX($C$2:$C$7,$F10)-INDEX($C$2:$C$7,L$1))^2</f>
         <v>554</v>
       </c>
@@ -8724,30 +9948,30 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="13">
+      <c r="F11" s="5">
         <v>2</v>
       </c>
-      <c r="G11" s="16" cm="1">
+      <c r="G11" s="15" cm="1">
         <f t="array" ref="G11">(INDEX($B$2:$B$7,$F11)-INDEX($B$2:$B$7,G$1))^2 + (INDEX($C$2:$C$7,$F11)-INDEX($C$2:$C$7,G$1))^2</f>
         <v>549</v>
       </c>
-      <c r="H11" s="16" cm="1">
+      <c r="H11" s="15" cm="1">
         <f t="array" ref="H11">(INDEX($B$2:$B$7,$F11)-INDEX($B$2:$B$7,H$1))^2 + (INDEX($C$2:$C$7,$F11)-INDEX($C$2:$C$7,H$1))^2</f>
         <v>0</v>
       </c>
-      <c r="I11" s="16" cm="1">
+      <c r="I11" s="15" cm="1">
         <f t="array" ref="I11">(INDEX($B$2:$B$7,$F11)-INDEX($B$2:$B$7,I$1))^2 + (INDEX($C$2:$C$7,$F11)-INDEX($C$2:$C$7,I$1))^2</f>
-        <v>205</v>
-      </c>
-      <c r="J11" s="16" cm="1">
+        <v>180</v>
+      </c>
+      <c r="J11" s="15" cm="1">
         <f t="array" ref="J11">(INDEX($B$2:$B$7,$F11)-INDEX($B$2:$B$7,J$1))^2 + (INDEX($C$2:$C$7,$F11)-INDEX($C$2:$C$7,J$1))^2</f>
         <v>377</v>
       </c>
-      <c r="K11" s="16" cm="1">
+      <c r="K11" s="15" cm="1">
         <f t="array" ref="K11">(INDEX($B$2:$B$7,$F11)-INDEX($B$2:$B$7,K$1))^2 + (INDEX($C$2:$C$7,$F11)-INDEX($C$2:$C$7,K$1))^2</f>
         <v>205</v>
       </c>
-      <c r="L11" s="16" cm="1">
+      <c r="L11" s="15" cm="1">
         <f t="array" ref="L11">(INDEX($B$2:$B$7,$F11)-INDEX($B$2:$B$7,L$1))^2 + (INDEX($C$2:$C$7,$F11)-INDEX($C$2:$C$7,L$1))^2</f>
         <v>593</v>
       </c>
@@ -8761,29 +9985,29 @@
       <c r="F12" s="6">
         <v>3</v>
       </c>
-      <c r="G12" s="16" cm="1">
+      <c r="G12" s="15" cm="1">
         <f t="array" ref="G12">(INDEX($B$2:$B$7,$F12)-INDEX($B$2:$B$7,G$1))^2 + (INDEX($C$2:$C$7,$F12)-INDEX($C$2:$C$7,G$1))^2</f>
-        <v>466</v>
-      </c>
-      <c r="H12" s="16" cm="1">
+        <v>477</v>
+      </c>
+      <c r="H12" s="15" cm="1">
         <f t="array" ref="H12">(INDEX($B$2:$B$7,$F12)-INDEX($B$2:$B$7,H$1))^2 + (INDEX($C$2:$C$7,$F12)-INDEX($C$2:$C$7,H$1))^2</f>
-        <v>205</v>
-      </c>
-      <c r="I12" s="16" cm="1">
+        <v>180</v>
+      </c>
+      <c r="I12" s="15" cm="1">
         <f t="array" ref="I12">(INDEX($B$2:$B$7,$F12)-INDEX($B$2:$B$7,I$1))^2 + (INDEX($C$2:$C$7,$F12)-INDEX($C$2:$C$7,I$1))^2</f>
         <v>0</v>
       </c>
-      <c r="J12" s="16" cm="1">
+      <c r="J12" s="15" cm="1">
         <f t="array" ref="J12">(INDEX($B$2:$B$7,$F12)-INDEX($B$2:$B$7,J$1))^2 + (INDEX($C$2:$C$7,$F12)-INDEX($C$2:$C$7,J$1))^2</f>
-        <v>250</v>
-      </c>
-      <c r="K12" s="16" cm="1">
+        <v>233</v>
+      </c>
+      <c r="K12" s="15" cm="1">
         <f t="array" ref="K12">(INDEX($B$2:$B$7,$F12)-INDEX($B$2:$B$7,K$1))^2 + (INDEX($C$2:$C$7,$F12)-INDEX($C$2:$C$7,K$1))^2</f>
-        <v>810</v>
-      </c>
-      <c r="L12" s="16" cm="1">
+        <v>757</v>
+      </c>
+      <c r="L12" s="15" cm="1">
         <f t="array" ref="L12">(INDEX($B$2:$B$7,$F12)-INDEX($B$2:$B$7,L$1))^2 + (INDEX($C$2:$C$7,$F12)-INDEX($C$2:$C$7,L$1))^2</f>
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
@@ -8795,27 +10019,27 @@
       <c r="F13" s="7">
         <v>4</v>
       </c>
-      <c r="G13" s="16" cm="1">
+      <c r="G13" s="15" cm="1">
         <f t="array" ref="G13">(INDEX($B$2:$B$7,$F13)-INDEX($B$2:$B$7,G$1))^2 + (INDEX($C$2:$C$7,$F13)-INDEX($C$2:$C$7,G$1))^2</f>
         <v>1352</v>
       </c>
-      <c r="H13" s="16" cm="1">
+      <c r="H13" s="15" cm="1">
         <f t="array" ref="H13">(INDEX($B$2:$B$7,$F13)-INDEX($B$2:$B$7,H$1))^2 + (INDEX($C$2:$C$7,$F13)-INDEX($C$2:$C$7,H$1))^2</f>
         <v>377</v>
       </c>
-      <c r="I13" s="16" cm="1">
+      <c r="I13" s="15" cm="1">
         <f t="array" ref="I13">(INDEX($B$2:$B$7,$F13)-INDEX($B$2:$B$7,I$1))^2 + (INDEX($C$2:$C$7,$F13)-INDEX($C$2:$C$7,I$1))^2</f>
-        <v>250</v>
-      </c>
-      <c r="J13" s="16" cm="1">
+        <v>233</v>
+      </c>
+      <c r="J13" s="15" cm="1">
         <f t="array" ref="J13">(INDEX($B$2:$B$7,$F13)-INDEX($B$2:$B$7,J$1))^2 + (INDEX($C$2:$C$7,$F13)-INDEX($C$2:$C$7,J$1))^2</f>
         <v>0</v>
       </c>
-      <c r="K13" s="16" cm="1">
+      <c r="K13" s="15" cm="1">
         <f t="array" ref="K13">(INDEX($B$2:$B$7,$F13)-INDEX($B$2:$B$7,K$1))^2 + (INDEX($C$2:$C$7,$F13)-INDEX($C$2:$C$7,K$1))^2</f>
         <v>808</v>
       </c>
-      <c r="L13" s="16" cm="1">
+      <c r="L13" s="15" cm="1">
         <f t="array" ref="L13">(INDEX($B$2:$B$7,$F13)-INDEX($B$2:$B$7,L$1))^2 + (INDEX($C$2:$C$7,$F13)-INDEX($C$2:$C$7,L$1))^2</f>
         <v>482</v>
       </c>
@@ -8829,27 +10053,27 @@
       <c r="F14" s="8">
         <v>5</v>
       </c>
-      <c r="G14" s="16" cm="1">
+      <c r="G14" s="15" cm="1">
         <f t="array" ref="G14">(INDEX($B$2:$B$7,$F14)-INDEX($B$2:$B$7,G$1))^2 + (INDEX($C$2:$C$7,$F14)-INDEX($C$2:$C$7,G$1))^2</f>
         <v>1168</v>
       </c>
-      <c r="H14" s="16" cm="1">
+      <c r="H14" s="15" cm="1">
         <f t="array" ref="H14">(INDEX($B$2:$B$7,$F14)-INDEX($B$2:$B$7,H$1))^2 + (INDEX($C$2:$C$7,$F14)-INDEX($C$2:$C$7,H$1))^2</f>
         <v>205</v>
       </c>
-      <c r="I14" s="16" cm="1">
+      <c r="I14" s="15" cm="1">
         <f t="array" ref="I14">(INDEX($B$2:$B$7,$F14)-INDEX($B$2:$B$7,I$1))^2 + (INDEX($C$2:$C$7,$F14)-INDEX($C$2:$C$7,I$1))^2</f>
-        <v>810</v>
-      </c>
-      <c r="J14" s="16" cm="1">
+        <v>757</v>
+      </c>
+      <c r="J14" s="15" cm="1">
         <f t="array" ref="J14">(INDEX($B$2:$B$7,$F14)-INDEX($B$2:$B$7,J$1))^2 + (INDEX($C$2:$C$7,$F14)-INDEX($C$2:$C$7,J$1))^2</f>
         <v>808</v>
       </c>
-      <c r="K14" s="16" cm="1">
+      <c r="K14" s="15" cm="1">
         <f t="array" ref="K14">(INDEX($B$2:$B$7,$F14)-INDEX($B$2:$B$7,K$1))^2 + (INDEX($C$2:$C$7,$F14)-INDEX($C$2:$C$7,K$1))^2</f>
         <v>0</v>
       </c>
-      <c r="L14" s="16" cm="1">
+      <c r="L14" s="15" cm="1">
         <f t="array" ref="L14">(INDEX($B$2:$B$7,$F14)-INDEX($B$2:$B$7,L$1))^2 + (INDEX($C$2:$C$7,$F14)-INDEX($C$2:$C$7,L$1))^2</f>
         <v>1490</v>
       </c>
@@ -8863,27 +10087,27 @@
       <c r="F15" s="9">
         <v>6</v>
       </c>
-      <c r="G15" s="16" cm="1">
+      <c r="G15" s="15" cm="1">
         <f t="array" ref="G15">(INDEX($B$2:$B$7,$F15)-INDEX($B$2:$B$7,G$1))^2 + (INDEX($C$2:$C$7,$F15)-INDEX($C$2:$C$7,G$1))^2</f>
         <v>554</v>
       </c>
-      <c r="H15" s="16" cm="1">
+      <c r="H15" s="15" cm="1">
         <f t="array" ref="H15">(INDEX($B$2:$B$7,$F15)-INDEX($B$2:$B$7,H$1))^2 + (INDEX($C$2:$C$7,$F15)-INDEX($C$2:$C$7,H$1))^2</f>
         <v>593</v>
       </c>
-      <c r="I15" s="16" cm="1">
+      <c r="I15" s="15" cm="1">
         <f t="array" ref="I15">(INDEX($B$2:$B$7,$F15)-INDEX($B$2:$B$7,I$1))^2 + (INDEX($C$2:$C$7,$F15)-INDEX($C$2:$C$7,I$1))^2</f>
-        <v>104</v>
-      </c>
-      <c r="J15" s="16" cm="1">
+        <v>125</v>
+      </c>
+      <c r="J15" s="15" cm="1">
         <f t="array" ref="J15">(INDEX($B$2:$B$7,$F15)-INDEX($B$2:$B$7,J$1))^2 + (INDEX($C$2:$C$7,$F15)-INDEX($C$2:$C$7,J$1))^2</f>
         <v>482</v>
       </c>
-      <c r="K15" s="16" cm="1">
+      <c r="K15" s="15" cm="1">
         <f t="array" ref="K15">(INDEX($B$2:$B$7,$F15)-INDEX($B$2:$B$7,K$1))^2 + (INDEX($C$2:$C$7,$F15)-INDEX($C$2:$C$7,K$1))^2</f>
         <v>1490</v>
       </c>
-      <c r="L15" s="16" cm="1">
+      <c r="L15" s="15" cm="1">
         <f t="array" ref="L15">(INDEX($B$2:$B$7,$F15)-INDEX($B$2:$B$7,L$1))^2 + (INDEX($C$2:$C$7,$F15)-INDEX($C$2:$C$7,L$1))^2</f>
         <v>0</v>
       </c>
@@ -8910,7 +10134,7 @@
       <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="4">
@@ -8941,27 +10165,27 @@
       <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="G18" s="18" cm="1">
+      <c r="G18" s="17" cm="1">
         <f t="array" ref="G18">((INDEX($B$2:$B$7,$F18)-INDEX($B$2:$B$7,G$1))^2 + (INDEX($C$2:$C$7,$F18)-INDEX($C$2:$C$7,G$1))^2)/COUNT($B$2:$C$2)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="18" cm="1">
+      <c r="H18" s="17" cm="1">
         <f t="array" ref="H18">((INDEX($B$2:$B$7,$F18)-INDEX($B$2:$B$7,H$1))^2 + (INDEX($C$2:$C$7,$F18)-INDEX($C$2:$C$7,H$1))^2)/COUNT($B$2:$C$2)</f>
         <v>274.5</v>
       </c>
-      <c r="I18" s="18" cm="1">
+      <c r="I18" s="17" cm="1">
         <f t="array" ref="I18">((INDEX($B$2:$B$7,$F18)-INDEX($B$2:$B$7,I$1))^2 + (INDEX($C$2:$C$7,$F18)-INDEX($C$2:$C$7,I$1))^2)/COUNT($B$2:$C$2)</f>
-        <v>233</v>
-      </c>
-      <c r="J18" s="18" cm="1">
+        <v>238.5</v>
+      </c>
+      <c r="J18" s="17" cm="1">
         <f t="array" ref="J18">((INDEX($B$2:$B$7,$F18)-INDEX($B$2:$B$7,J$1))^2 + (INDEX($C$2:$C$7,$F18)-INDEX($C$2:$C$7,J$1))^2)/COUNT($B$2:$C$2)</f>
         <v>676</v>
       </c>
-      <c r="K18" s="18" cm="1">
+      <c r="K18" s="17" cm="1">
         <f t="array" ref="K18">((INDEX($B$2:$B$7,$F18)-INDEX($B$2:$B$7,K$1))^2 + (INDEX($C$2:$C$7,$F18)-INDEX($C$2:$C$7,K$1))^2)/COUNT($B$2:$C$2)</f>
         <v>584</v>
       </c>
-      <c r="L18" s="18" cm="1">
+      <c r="L18" s="17" cm="1">
         <f t="array" ref="L18">((INDEX($B$2:$B$7,$F18)-INDEX($B$2:$B$7,L$1))^2 + (INDEX($C$2:$C$7,$F18)-INDEX($C$2:$C$7,L$1))^2)/COUNT($B$2:$C$2)</f>
         <v>277</v>
       </c>
@@ -8972,30 +10196,30 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="13">
+      <c r="F19" s="5">
         <v>2</v>
       </c>
-      <c r="G19" s="18" cm="1">
+      <c r="G19" s="17" cm="1">
         <f t="array" ref="G19">((INDEX($B$2:$B$7,$F19)-INDEX($B$2:$B$7,G$1))^2 + (INDEX($C$2:$C$7,$F19)-INDEX($C$2:$C$7,G$1))^2)/COUNT($B$2:$C$2)</f>
         <v>274.5</v>
       </c>
-      <c r="H19" s="18" cm="1">
+      <c r="H19" s="17" cm="1">
         <f t="array" ref="H19">((INDEX($B$2:$B$7,$F19)-INDEX($B$2:$B$7,H$1))^2 + (INDEX($C$2:$C$7,$F19)-INDEX($C$2:$C$7,H$1))^2)/COUNT($B$2:$C$2)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="18" cm="1">
+      <c r="I19" s="17" cm="1">
         <f t="array" ref="I19">((INDEX($B$2:$B$7,$F19)-INDEX($B$2:$B$7,I$1))^2 + (INDEX($C$2:$C$7,$F19)-INDEX($C$2:$C$7,I$1))^2)/COUNT($B$2:$C$2)</f>
-        <v>102.5</v>
-      </c>
-      <c r="J19" s="18" cm="1">
+        <v>90</v>
+      </c>
+      <c r="J19" s="17" cm="1">
         <f t="array" ref="J19">((INDEX($B$2:$B$7,$F19)-INDEX($B$2:$B$7,J$1))^2 + (INDEX($C$2:$C$7,$F19)-INDEX($C$2:$C$7,J$1))^2)/COUNT($B$2:$C$2)</f>
         <v>188.5</v>
       </c>
-      <c r="K19" s="18" cm="1">
+      <c r="K19" s="17" cm="1">
         <f t="array" ref="K19">((INDEX($B$2:$B$7,$F19)-INDEX($B$2:$B$7,K$1))^2 + (INDEX($C$2:$C$7,$F19)-INDEX($C$2:$C$7,K$1))^2)/COUNT($B$2:$C$2)</f>
         <v>102.5</v>
       </c>
-      <c r="L19" s="18" cm="1">
+      <c r="L19" s="17" cm="1">
         <f t="array" ref="L19">((INDEX($B$2:$B$7,$F19)-INDEX($B$2:$B$7,L$1))^2 + (INDEX($C$2:$C$7,$F19)-INDEX($C$2:$C$7,L$1))^2)/COUNT($B$2:$C$2)</f>
         <v>296.5</v>
       </c>
@@ -9009,29 +10233,29 @@
       <c r="F20" s="6">
         <v>3</v>
       </c>
-      <c r="G20" s="18" cm="1">
+      <c r="G20" s="17" cm="1">
         <f t="array" ref="G20">((INDEX($B$2:$B$7,$F20)-INDEX($B$2:$B$7,G$1))^2 + (INDEX($C$2:$C$7,$F20)-INDEX($C$2:$C$7,G$1))^2)/COUNT($B$2:$C$2)</f>
-        <v>233</v>
-      </c>
-      <c r="H20" s="18" cm="1">
+        <v>238.5</v>
+      </c>
+      <c r="H20" s="17" cm="1">
         <f t="array" ref="H20">((INDEX($B$2:$B$7,$F20)-INDEX($B$2:$B$7,H$1))^2 + (INDEX($C$2:$C$7,$F20)-INDEX($C$2:$C$7,H$1))^2)/COUNT($B$2:$C$2)</f>
-        <v>102.5</v>
-      </c>
-      <c r="I20" s="18" cm="1">
+        <v>90</v>
+      </c>
+      <c r="I20" s="17" cm="1">
         <f t="array" ref="I20">((INDEX($B$2:$B$7,$F20)-INDEX($B$2:$B$7,I$1))^2 + (INDEX($C$2:$C$7,$F20)-INDEX($C$2:$C$7,I$1))^2)/COUNT($B$2:$C$2)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="18" cm="1">
+      <c r="J20" s="17" cm="1">
         <f t="array" ref="J20">((INDEX($B$2:$B$7,$F20)-INDEX($B$2:$B$7,J$1))^2 + (INDEX($C$2:$C$7,$F20)-INDEX($C$2:$C$7,J$1))^2)/COUNT($B$2:$C$2)</f>
-        <v>125</v>
-      </c>
-      <c r="K20" s="18" cm="1">
+        <v>116.5</v>
+      </c>
+      <c r="K20" s="17" cm="1">
         <f t="array" ref="K20">((INDEX($B$2:$B$7,$F20)-INDEX($B$2:$B$7,K$1))^2 + (INDEX($C$2:$C$7,$F20)-INDEX($C$2:$C$7,K$1))^2)/COUNT($B$2:$C$2)</f>
-        <v>405</v>
-      </c>
-      <c r="L20" s="18" cm="1">
+        <v>378.5</v>
+      </c>
+      <c r="L20" s="17" cm="1">
         <f t="array" ref="L20">((INDEX($B$2:$B$7,$F20)-INDEX($B$2:$B$7,L$1))^2 + (INDEX($C$2:$C$7,$F20)-INDEX($C$2:$C$7,L$1))^2)/COUNT($B$2:$C$2)</f>
-        <v>52</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -9043,27 +10267,27 @@
       <c r="F21" s="7">
         <v>4</v>
       </c>
-      <c r="G21" s="18" cm="1">
+      <c r="G21" s="17" cm="1">
         <f t="array" ref="G21">((INDEX($B$2:$B$7,$F21)-INDEX($B$2:$B$7,G$1))^2 + (INDEX($C$2:$C$7,$F21)-INDEX($C$2:$C$7,G$1))^2)/COUNT($B$2:$C$2)</f>
         <v>676</v>
       </c>
-      <c r="H21" s="18" cm="1">
+      <c r="H21" s="17" cm="1">
         <f t="array" ref="H21">((INDEX($B$2:$B$7,$F21)-INDEX($B$2:$B$7,H$1))^2 + (INDEX($C$2:$C$7,$F21)-INDEX($C$2:$C$7,H$1))^2)/COUNT($B$2:$C$2)</f>
         <v>188.5</v>
       </c>
-      <c r="I21" s="18" cm="1">
+      <c r="I21" s="17" cm="1">
         <f t="array" ref="I21">((INDEX($B$2:$B$7,$F21)-INDEX($B$2:$B$7,I$1))^2 + (INDEX($C$2:$C$7,$F21)-INDEX($C$2:$C$7,I$1))^2)/COUNT($B$2:$C$2)</f>
-        <v>125</v>
-      </c>
-      <c r="J21" s="18" cm="1">
+        <v>116.5</v>
+      </c>
+      <c r="J21" s="17" cm="1">
         <f t="array" ref="J21">((INDEX($B$2:$B$7,$F21)-INDEX($B$2:$B$7,J$1))^2 + (INDEX($C$2:$C$7,$F21)-INDEX($C$2:$C$7,J$1))^2)/COUNT($B$2:$C$2)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="18" cm="1">
+      <c r="K21" s="17" cm="1">
         <f t="array" ref="K21">((INDEX($B$2:$B$7,$F21)-INDEX($B$2:$B$7,K$1))^2 + (INDEX($C$2:$C$7,$F21)-INDEX($C$2:$C$7,K$1))^2)/COUNT($B$2:$C$2)</f>
         <v>404</v>
       </c>
-      <c r="L21" s="18" cm="1">
+      <c r="L21" s="17" cm="1">
         <f t="array" ref="L21">((INDEX($B$2:$B$7,$F21)-INDEX($B$2:$B$7,L$1))^2 + (INDEX($C$2:$C$7,$F21)-INDEX($C$2:$C$7,L$1))^2)/COUNT($B$2:$C$2)</f>
         <v>241</v>
       </c>
@@ -9077,27 +10301,27 @@
       <c r="F22" s="8">
         <v>5</v>
       </c>
-      <c r="G22" s="18" cm="1">
+      <c r="G22" s="17" cm="1">
         <f t="array" ref="G22">((INDEX($B$2:$B$7,$F22)-INDEX($B$2:$B$7,G$1))^2 + (INDEX($C$2:$C$7,$F22)-INDEX($C$2:$C$7,G$1))^2)/COUNT($B$2:$C$2)</f>
         <v>584</v>
       </c>
-      <c r="H22" s="18" cm="1">
+      <c r="H22" s="17" cm="1">
         <f t="array" ref="H22">((INDEX($B$2:$B$7,$F22)-INDEX($B$2:$B$7,H$1))^2 + (INDEX($C$2:$C$7,$F22)-INDEX($C$2:$C$7,H$1))^2)/COUNT($B$2:$C$2)</f>
         <v>102.5</v>
       </c>
-      <c r="I22" s="18" cm="1">
+      <c r="I22" s="17" cm="1">
         <f t="array" ref="I22">((INDEX($B$2:$B$7,$F22)-INDEX($B$2:$B$7,I$1))^2 + (INDEX($C$2:$C$7,$F22)-INDEX($C$2:$C$7,I$1))^2)/COUNT($B$2:$C$2)</f>
-        <v>405</v>
-      </c>
-      <c r="J22" s="18" cm="1">
+        <v>378.5</v>
+      </c>
+      <c r="J22" s="17" cm="1">
         <f t="array" ref="J22">((INDEX($B$2:$B$7,$F22)-INDEX($B$2:$B$7,J$1))^2 + (INDEX($C$2:$C$7,$F22)-INDEX($C$2:$C$7,J$1))^2)/COUNT($B$2:$C$2)</f>
         <v>404</v>
       </c>
-      <c r="K22" s="18" cm="1">
+      <c r="K22" s="17" cm="1">
         <f t="array" ref="K22">((INDEX($B$2:$B$7,$F22)-INDEX($B$2:$B$7,K$1))^2 + (INDEX($C$2:$C$7,$F22)-INDEX($C$2:$C$7,K$1))^2)/COUNT($B$2:$C$2)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="18" cm="1">
+      <c r="L22" s="17" cm="1">
         <f t="array" ref="L22">((INDEX($B$2:$B$7,$F22)-INDEX($B$2:$B$7,L$1))^2 + (INDEX($C$2:$C$7,$F22)-INDEX($C$2:$C$7,L$1))^2)/COUNT($B$2:$C$2)</f>
         <v>745</v>
       </c>
@@ -9111,27 +10335,27 @@
       <c r="F23" s="9">
         <v>6</v>
       </c>
-      <c r="G23" s="18" cm="1">
+      <c r="G23" s="17" cm="1">
         <f t="array" ref="G23">((INDEX($B$2:$B$7,$F23)-INDEX($B$2:$B$7,G$1))^2 + (INDEX($C$2:$C$7,$F23)-INDEX($C$2:$C$7,G$1))^2)/COUNT($B$2:$C$2)</f>
         <v>277</v>
       </c>
-      <c r="H23" s="18" cm="1">
+      <c r="H23" s="17" cm="1">
         <f t="array" ref="H23">((INDEX($B$2:$B$7,$F23)-INDEX($B$2:$B$7,H$1))^2 + (INDEX($C$2:$C$7,$F23)-INDEX($C$2:$C$7,H$1))^2)/COUNT($B$2:$C$2)</f>
         <v>296.5</v>
       </c>
-      <c r="I23" s="18" cm="1">
+      <c r="I23" s="17" cm="1">
         <f t="array" ref="I23">((INDEX($B$2:$B$7,$F23)-INDEX($B$2:$B$7,I$1))^2 + (INDEX($C$2:$C$7,$F23)-INDEX($C$2:$C$7,I$1))^2)/COUNT($B$2:$C$2)</f>
-        <v>52</v>
-      </c>
-      <c r="J23" s="18" cm="1">
+        <v>62.5</v>
+      </c>
+      <c r="J23" s="17" cm="1">
         <f t="array" ref="J23">((INDEX($B$2:$B$7,$F23)-INDEX($B$2:$B$7,J$1))^2 + (INDEX($C$2:$C$7,$F23)-INDEX($C$2:$C$7,J$1))^2)/COUNT($B$2:$C$2)</f>
         <v>241</v>
       </c>
-      <c r="K23" s="18" cm="1">
+      <c r="K23" s="17" cm="1">
         <f t="array" ref="K23">((INDEX($B$2:$B$7,$F23)-INDEX($B$2:$B$7,K$1))^2 + (INDEX($C$2:$C$7,$F23)-INDEX($C$2:$C$7,K$1))^2)/COUNT($B$2:$C$2)</f>
         <v>745</v>
       </c>
-      <c r="L23" s="18" cm="1">
+      <c r="L23" s="17" cm="1">
         <f t="array" ref="L23">((INDEX($B$2:$B$7,$F23)-INDEX($B$2:$B$7,L$1))^2 + (INDEX($C$2:$C$7,$F23)-INDEX($C$2:$C$7,L$1))^2)/COUNT($B$2:$C$2)</f>
         <v>0</v>
       </c>
@@ -9191,27 +10415,27 @@
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="G26" s="19" cm="1">
+      <c r="G26" s="18" cm="1">
         <f t="array" ref="G26">ABS((INDEX($B$2:$B$7,$F26)-INDEX($B$2:$B$7,G$1))) + ABS( (INDEX($C$2:$C$7,$F26)-INDEX($C$2:$C$7,G$1)))</f>
         <v>0</v>
       </c>
-      <c r="H26" s="19" cm="1">
+      <c r="H26" s="18" cm="1">
         <f t="array" ref="H26">ABS((INDEX($B$2:$B$7,$F26)-INDEX($B$2:$B$7,H$1))) + ABS( (INDEX($C$2:$C$7,$F26)-INDEX($C$2:$C$7,H$1)))</f>
         <v>33</v>
       </c>
-      <c r="I26" s="19" cm="1">
+      <c r="I26" s="18" cm="1">
         <f t="array" ref="I26">ABS((INDEX($B$2:$B$7,$F26)-INDEX($B$2:$B$7,I$1))) + ABS( (INDEX($C$2:$C$7,$F26)-INDEX($C$2:$C$7,I$1)))</f>
-        <v>26</v>
-      </c>
-      <c r="J26" s="19" cm="1">
+        <v>27</v>
+      </c>
+      <c r="J26" s="18" cm="1">
         <f t="array" ref="J26">ABS((INDEX($B$2:$B$7,$F26)-INDEX($B$2:$B$7,J$1))) + ABS( (INDEX($C$2:$C$7,$F26)-INDEX($C$2:$C$7,J$1)))</f>
         <v>48</v>
       </c>
-      <c r="K26" s="19" cm="1">
+      <c r="K26" s="18" cm="1">
         <f t="array" ref="K26">ABS((INDEX($B$2:$B$7,$F26)-INDEX($B$2:$B$7,K$1))) + ABS( (INDEX($C$2:$C$7,$F26)-INDEX($C$2:$C$7,K$1)))</f>
         <v>44</v>
       </c>
-      <c r="L26" s="19" cm="1">
+      <c r="L26" s="18" cm="1">
         <f t="array" ref="L26">ABS((INDEX($B$2:$B$7,$F26)-INDEX($B$2:$B$7,L$1))) + ABS( (INDEX($C$2:$C$7,$F26)-INDEX($C$2:$C$7,L$1)))</f>
         <v>28</v>
       </c>
@@ -9224,30 +10448,30 @@
       <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="5">
         <v>2</v>
       </c>
-      <c r="G27" s="19" cm="1">
+      <c r="G27" s="18" cm="1">
         <f t="array" ref="G27">ABS((INDEX($B$2:$B$7,$F27)-INDEX($B$2:$B$7,G$1))) + ABS( (INDEX($C$2:$C$7,$F27)-INDEX($C$2:$C$7,G$1)))</f>
         <v>33</v>
       </c>
-      <c r="H27" s="19" cm="1">
+      <c r="H27" s="18" cm="1">
         <f t="array" ref="H27">ABS((INDEX($B$2:$B$7,$F27)-INDEX($B$2:$B$7,H$1))) + ABS( (INDEX($C$2:$C$7,$F27)-INDEX($C$2:$C$7,H$1)))</f>
         <v>0</v>
       </c>
-      <c r="I27" s="19" cm="1">
+      <c r="I27" s="18" cm="1">
         <f t="array" ref="I27">ABS((INDEX($B$2:$B$7,$F27)-INDEX($B$2:$B$7,I$1))) + ABS( (INDEX($C$2:$C$7,$F27)-INDEX($C$2:$C$7,I$1)))</f>
-        <v>19</v>
-      </c>
-      <c r="J27" s="19" cm="1">
+        <v>18</v>
+      </c>
+      <c r="J27" s="18" cm="1">
         <f t="array" ref="J27">ABS((INDEX($B$2:$B$7,$F27)-INDEX($B$2:$B$7,J$1))) + ABS( (INDEX($C$2:$C$7,$F27)-INDEX($C$2:$C$7,J$1)))</f>
         <v>23</v>
       </c>
-      <c r="K27" s="19" cm="1">
+      <c r="K27" s="18" cm="1">
         <f t="array" ref="K27">ABS((INDEX($B$2:$B$7,$F27)-INDEX($B$2:$B$7,K$1))) + ABS( (INDEX($C$2:$C$7,$F27)-INDEX($C$2:$C$7,K$1)))</f>
         <v>17</v>
       </c>
-      <c r="L27" s="19" cm="1">
+      <c r="L27" s="18" cm="1">
         <f t="array" ref="L27">ABS((INDEX($B$2:$B$7,$F27)-INDEX($B$2:$B$7,L$1))) + ABS( (INDEX($C$2:$C$7,$F27)-INDEX($C$2:$C$7,L$1)))</f>
         <v>31</v>
       </c>
@@ -9261,29 +10485,29 @@
       <c r="F28" s="6">
         <v>3</v>
       </c>
-      <c r="G28" s="19" cm="1">
+      <c r="G28" s="18" cm="1">
         <f t="array" ref="G28">ABS((INDEX($B$2:$B$7,$F28)-INDEX($B$2:$B$7,G$1))) + ABS( (INDEX($C$2:$C$7,$F28)-INDEX($C$2:$C$7,G$1)))</f>
-        <v>26</v>
-      </c>
-      <c r="H28" s="19" cm="1">
+        <v>27</v>
+      </c>
+      <c r="H28" s="18" cm="1">
         <f t="array" ref="H28">ABS((INDEX($B$2:$B$7,$F28)-INDEX($B$2:$B$7,H$1))) + ABS( (INDEX($C$2:$C$7,$F28)-INDEX($C$2:$C$7,H$1)))</f>
-        <v>19</v>
-      </c>
-      <c r="I28" s="19" cm="1">
+        <v>18</v>
+      </c>
+      <c r="I28" s="18" cm="1">
         <f t="array" ref="I28">ABS((INDEX($B$2:$B$7,$F28)-INDEX($B$2:$B$7,I$1))) + ABS( (INDEX($C$2:$C$7,$F28)-INDEX($C$2:$C$7,I$1)))</f>
         <v>0</v>
       </c>
-      <c r="J28" s="19" cm="1">
+      <c r="J28" s="18" cm="1">
         <f t="array" ref="J28">ABS((INDEX($B$2:$B$7,$F28)-INDEX($B$2:$B$7,J$1))) + ABS( (INDEX($C$2:$C$7,$F28)-INDEX($C$2:$C$7,J$1)))</f>
-        <v>22</v>
-      </c>
-      <c r="K28" s="19" cm="1">
+        <v>21</v>
+      </c>
+      <c r="K28" s="18" cm="1">
         <f t="array" ref="K28">ABS((INDEX($B$2:$B$7,$F28)-INDEX($B$2:$B$7,K$1))) + ABS( (INDEX($C$2:$C$7,$F28)-INDEX($C$2:$C$7,K$1)))</f>
-        <v>36</v>
-      </c>
-      <c r="L28" s="19" cm="1">
+        <v>35</v>
+      </c>
+      <c r="L28" s="18" cm="1">
         <f t="array" ref="L28">ABS((INDEX($B$2:$B$7,$F28)-INDEX($B$2:$B$7,L$1))) + ABS( (INDEX($C$2:$C$7,$F28)-INDEX($C$2:$C$7,L$1)))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -9295,27 +10519,27 @@
       <c r="F29" s="7">
         <v>4</v>
       </c>
-      <c r="G29" s="19" cm="1">
+      <c r="G29" s="18" cm="1">
         <f t="array" ref="G29">ABS((INDEX($B$2:$B$7,$F29)-INDEX($B$2:$B$7,G$1))) + ABS( (INDEX($C$2:$C$7,$F29)-INDEX($C$2:$C$7,G$1)))</f>
         <v>48</v>
       </c>
-      <c r="H29" s="19" cm="1">
+      <c r="H29" s="18" cm="1">
         <f t="array" ref="H29">ABS((INDEX($B$2:$B$7,$F29)-INDEX($B$2:$B$7,H$1))) + ABS( (INDEX($C$2:$C$7,$F29)-INDEX($C$2:$C$7,H$1)))</f>
         <v>23</v>
       </c>
-      <c r="I29" s="19" cm="1">
+      <c r="I29" s="18" cm="1">
         <f t="array" ref="I29">ABS((INDEX($B$2:$B$7,$F29)-INDEX($B$2:$B$7,I$1))) + ABS( (INDEX($C$2:$C$7,$F29)-INDEX($C$2:$C$7,I$1)))</f>
-        <v>22</v>
-      </c>
-      <c r="J29" s="19" cm="1">
+        <v>21</v>
+      </c>
+      <c r="J29" s="18" cm="1">
         <f t="array" ref="J29">ABS((INDEX($B$2:$B$7,$F29)-INDEX($B$2:$B$7,J$1))) + ABS( (INDEX($C$2:$C$7,$F29)-INDEX($C$2:$C$7,J$1)))</f>
         <v>0</v>
       </c>
-      <c r="K29" s="19" cm="1">
+      <c r="K29" s="18" cm="1">
         <f t="array" ref="K29">ABS((INDEX($B$2:$B$7,$F29)-INDEX($B$2:$B$7,K$1))) + ABS( (INDEX($C$2:$C$7,$F29)-INDEX($C$2:$C$7,K$1)))</f>
         <v>40</v>
       </c>
-      <c r="L29" s="19" cm="1">
+      <c r="L29" s="18" cm="1">
         <f t="array" ref="L29">ABS((INDEX($B$2:$B$7,$F29)-INDEX($B$2:$B$7,L$1))) + ABS( (INDEX($C$2:$C$7,$F29)-INDEX($C$2:$C$7,L$1)))</f>
         <v>30</v>
       </c>
@@ -9329,27 +10553,27 @@
       <c r="F30" s="8">
         <v>5</v>
       </c>
-      <c r="G30" s="19" cm="1">
+      <c r="G30" s="18" cm="1">
         <f t="array" ref="G30">ABS((INDEX($B$2:$B$7,$F30)-INDEX($B$2:$B$7,G$1))) + ABS( (INDEX($C$2:$C$7,$F30)-INDEX($C$2:$C$7,G$1)))</f>
         <v>44</v>
       </c>
-      <c r="H30" s="19" cm="1">
+      <c r="H30" s="18" cm="1">
         <f t="array" ref="H30">ABS((INDEX($B$2:$B$7,$F30)-INDEX($B$2:$B$7,H$1))) + ABS( (INDEX($C$2:$C$7,$F30)-INDEX($C$2:$C$7,H$1)))</f>
         <v>17</v>
       </c>
-      <c r="I30" s="19" cm="1">
+      <c r="I30" s="18" cm="1">
         <f t="array" ref="I30">ABS((INDEX($B$2:$B$7,$F30)-INDEX($B$2:$B$7,I$1))) + ABS( (INDEX($C$2:$C$7,$F30)-INDEX($C$2:$C$7,I$1)))</f>
-        <v>36</v>
-      </c>
-      <c r="J30" s="19" cm="1">
+        <v>35</v>
+      </c>
+      <c r="J30" s="18" cm="1">
         <f t="array" ref="J30">ABS((INDEX($B$2:$B$7,$F30)-INDEX($B$2:$B$7,J$1))) + ABS( (INDEX($C$2:$C$7,$F30)-INDEX($C$2:$C$7,J$1)))</f>
         <v>40</v>
       </c>
-      <c r="K30" s="19" cm="1">
+      <c r="K30" s="18" cm="1">
         <f t="array" ref="K30">ABS((INDEX($B$2:$B$7,$F30)-INDEX($B$2:$B$7,K$1))) + ABS( (INDEX($C$2:$C$7,$F30)-INDEX($C$2:$C$7,K$1)))</f>
         <v>0</v>
       </c>
-      <c r="L30" s="19" cm="1">
+      <c r="L30" s="18" cm="1">
         <f t="array" ref="L30">ABS((INDEX($B$2:$B$7,$F30)-INDEX($B$2:$B$7,L$1))) + ABS( (INDEX($C$2:$C$7,$F30)-INDEX($C$2:$C$7,L$1)))</f>
         <v>48</v>
       </c>
@@ -9363,27 +10587,27 @@
       <c r="F31" s="9">
         <v>6</v>
       </c>
-      <c r="G31" s="19" cm="1">
+      <c r="G31" s="18" cm="1">
         <f t="array" ref="G31">ABS((INDEX($B$2:$B$7,$F31)-INDEX($B$2:$B$7,G$1))) + ABS( (INDEX($C$2:$C$7,$F31)-INDEX($C$2:$C$7,G$1)))</f>
         <v>28</v>
       </c>
-      <c r="H31" s="19" cm="1">
+      <c r="H31" s="18" cm="1">
         <f t="array" ref="H31">ABS((INDEX($B$2:$B$7,$F31)-INDEX($B$2:$B$7,H$1))) + ABS( (INDEX($C$2:$C$7,$F31)-INDEX($C$2:$C$7,H$1)))</f>
         <v>31</v>
       </c>
-      <c r="I31" s="19" cm="1">
+      <c r="I31" s="18" cm="1">
         <f t="array" ref="I31">ABS((INDEX($B$2:$B$7,$F31)-INDEX($B$2:$B$7,I$1))) + ABS( (INDEX($C$2:$C$7,$F31)-INDEX($C$2:$C$7,I$1)))</f>
-        <v>12</v>
-      </c>
-      <c r="J31" s="19" cm="1">
+        <v>13</v>
+      </c>
+      <c r="J31" s="18" cm="1">
         <f t="array" ref="J31">ABS((INDEX($B$2:$B$7,$F31)-INDEX($B$2:$B$7,J$1))) + ABS( (INDEX($C$2:$C$7,$F31)-INDEX($C$2:$C$7,J$1)))</f>
         <v>30</v>
       </c>
-      <c r="K31" s="19" cm="1">
+      <c r="K31" s="18" cm="1">
         <f t="array" ref="K31">ABS((INDEX($B$2:$B$7,$F31)-INDEX($B$2:$B$7,K$1))) + ABS( (INDEX($C$2:$C$7,$F31)-INDEX($C$2:$C$7,K$1)))</f>
         <v>48</v>
       </c>
-      <c r="L31" s="19" cm="1">
+      <c r="L31" s="18" cm="1">
         <f t="array" ref="L31">ABS((INDEX($B$2:$B$7,$F31)-INDEX($B$2:$B$7,L$1))) + ABS( (INDEX($C$2:$C$7,$F31)-INDEX($C$2:$C$7,L$1)))</f>
         <v>0</v>
       </c>
@@ -9415,56 +10639,56 @@
       <c r="F34" s="4">
         <v>1</v>
       </c>
-      <c r="G34" s="21" cm="1">
+      <c r="G34" s="20" cm="1">
         <f t="array" ref="G34">MAX(ABS((INDEX($B$2:$B$7,$F34)-INDEX($B$2:$B$7,G$1))), ABS( (INDEX($C$2:$C$7,$F34)-INDEX($C$2:$C$7,G$1))))</f>
         <v>0</v>
       </c>
-      <c r="H34" s="21" cm="1">
+      <c r="H34" s="20" cm="1">
         <f t="array" ref="H34">MAX(ABS((INDEX($B$2:$B$7,$F34)-INDEX($B$2:$B$7,H$1))), ABS( (INDEX($C$2:$C$7,$F34)-INDEX($C$2:$C$7,H$1))))</f>
         <v>18</v>
       </c>
-      <c r="I34" s="21" cm="1">
+      <c r="I34" s="20" cm="1">
         <f t="array" ref="I34">MAX(ABS((INDEX($B$2:$B$7,$F34)-INDEX($B$2:$B$7,I$1))), ABS( (INDEX($C$2:$C$7,$F34)-INDEX($C$2:$C$7,I$1))))</f>
         <v>21</v>
       </c>
-      <c r="J34" s="21" cm="1">
+      <c r="J34" s="20" cm="1">
         <f t="array" ref="J34">MAX(ABS((INDEX($B$2:$B$7,$F34)-INDEX($B$2:$B$7,J$1))), ABS( (INDEX($C$2:$C$7,$F34)-INDEX($C$2:$C$7,J$1))))</f>
         <v>34</v>
       </c>
-      <c r="K34" s="21" cm="1">
+      <c r="K34" s="20" cm="1">
         <f t="array" ref="K34">MAX(ABS((INDEX($B$2:$B$7,$F34)-INDEX($B$2:$B$7,K$1))), ABS( (INDEX($C$2:$C$7,$F34)-INDEX($C$2:$C$7,K$1))))</f>
         <v>32</v>
       </c>
-      <c r="L34" s="21" cm="1">
+      <c r="L34" s="20" cm="1">
         <f t="array" ref="L34">MAX(ABS((INDEX($B$2:$B$7,$F34)-INDEX($B$2:$B$7,L$1))), ABS( (INDEX($C$2:$C$7,$F34)-INDEX($C$2:$C$7,L$1))))</f>
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="5:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="F35" s="13">
+      <c r="F35" s="5">
         <v>2</v>
       </c>
-      <c r="G35" s="21" cm="1">
+      <c r="G35" s="20" cm="1">
         <f t="array" ref="G35">MAX(ABS((INDEX($B$2:$B$7,$F35)-INDEX($B$2:$B$7,G$1))), ABS( (INDEX($C$2:$C$7,$F35)-INDEX($C$2:$C$7,G$1))))</f>
         <v>18</v>
       </c>
-      <c r="H35" s="21" cm="1">
+      <c r="H35" s="20" cm="1">
         <f t="array" ref="H35">MAX(ABS((INDEX($B$2:$B$7,$F35)-INDEX($B$2:$B$7,H$1))), ABS( (INDEX($C$2:$C$7,$F35)-INDEX($C$2:$C$7,H$1))))</f>
         <v>0</v>
       </c>
-      <c r="I35" s="21" cm="1">
+      <c r="I35" s="20" cm="1">
         <f t="array" ref="I35">MAX(ABS((INDEX($B$2:$B$7,$F35)-INDEX($B$2:$B$7,I$1))), ABS( (INDEX($C$2:$C$7,$F35)-INDEX($C$2:$C$7,I$1))))</f>
-        <v>13</v>
-      </c>
-      <c r="J35" s="21" cm="1">
+        <v>12</v>
+      </c>
+      <c r="J35" s="20" cm="1">
         <f t="array" ref="J35">MAX(ABS((INDEX($B$2:$B$7,$F35)-INDEX($B$2:$B$7,J$1))), ABS( (INDEX($C$2:$C$7,$F35)-INDEX($C$2:$C$7,J$1))))</f>
         <v>19</v>
       </c>
-      <c r="K35" s="21" cm="1">
+      <c r="K35" s="20" cm="1">
         <f t="array" ref="K35">MAX(ABS((INDEX($B$2:$B$7,$F35)-INDEX($B$2:$B$7,K$1))), ABS( (INDEX($C$2:$C$7,$F35)-INDEX($C$2:$C$7,K$1))))</f>
         <v>14</v>
       </c>
-      <c r="L35" s="21" cm="1">
+      <c r="L35" s="20" cm="1">
         <f t="array" ref="L35">MAX(ABS((INDEX($B$2:$B$7,$F35)-INDEX($B$2:$B$7,L$1))), ABS( (INDEX($C$2:$C$7,$F35)-INDEX($C$2:$C$7,L$1))))</f>
         <v>23</v>
       </c>
@@ -9473,56 +10697,56 @@
       <c r="F36" s="6">
         <v>3</v>
       </c>
-      <c r="G36" s="21" cm="1">
+      <c r="G36" s="20" cm="1">
         <f t="array" ref="G36">MAX(ABS((INDEX($B$2:$B$7,$F36)-INDEX($B$2:$B$7,G$1))), ABS( (INDEX($C$2:$C$7,$F36)-INDEX($C$2:$C$7,G$1))))</f>
         <v>21</v>
       </c>
-      <c r="H36" s="21" cm="1">
+      <c r="H36" s="20" cm="1">
         <f t="array" ref="H36">MAX(ABS((INDEX($B$2:$B$7,$F36)-INDEX($B$2:$B$7,H$1))), ABS( (INDEX($C$2:$C$7,$F36)-INDEX($C$2:$C$7,H$1))))</f>
-        <v>13</v>
-      </c>
-      <c r="I36" s="21" cm="1">
+        <v>12</v>
+      </c>
+      <c r="I36" s="20" cm="1">
         <f t="array" ref="I36">MAX(ABS((INDEX($B$2:$B$7,$F36)-INDEX($B$2:$B$7,I$1))), ABS( (INDEX($C$2:$C$7,$F36)-INDEX($C$2:$C$7,I$1))))</f>
         <v>0</v>
       </c>
-      <c r="J36" s="21" cm="1">
+      <c r="J36" s="20" cm="1">
         <f t="array" ref="J36">MAX(ABS((INDEX($B$2:$B$7,$F36)-INDEX($B$2:$B$7,J$1))), ABS( (INDEX($C$2:$C$7,$F36)-INDEX($C$2:$C$7,J$1))))</f>
         <v>13</v>
       </c>
-      <c r="K36" s="21" cm="1">
+      <c r="K36" s="20" cm="1">
         <f t="array" ref="K36">MAX(ABS((INDEX($B$2:$B$7,$F36)-INDEX($B$2:$B$7,K$1))), ABS( (INDEX($C$2:$C$7,$F36)-INDEX($C$2:$C$7,K$1))))</f>
-        <v>27</v>
-      </c>
-      <c r="L36" s="21" cm="1">
+        <v>26</v>
+      </c>
+      <c r="L36" s="20" cm="1">
         <f t="array" ref="L36">MAX(ABS((INDEX($B$2:$B$7,$F36)-INDEX($B$2:$B$7,L$1))), ABS( (INDEX($C$2:$C$7,$F36)-INDEX($C$2:$C$7,L$1))))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="5:12" ht="15" x14ac:dyDescent="0.25">
       <c r="F37" s="7">
         <v>4</v>
       </c>
-      <c r="G37" s="21" cm="1">
+      <c r="G37" s="20" cm="1">
         <f t="array" ref="G37">MAX(ABS((INDEX($B$2:$B$7,$F37)-INDEX($B$2:$B$7,G$1))), ABS( (INDEX($C$2:$C$7,$F37)-INDEX($C$2:$C$7,G$1))))</f>
         <v>34</v>
       </c>
-      <c r="H37" s="21" cm="1">
+      <c r="H37" s="20" cm="1">
         <f t="array" ref="H37">MAX(ABS((INDEX($B$2:$B$7,$F37)-INDEX($B$2:$B$7,H$1))), ABS( (INDEX($C$2:$C$7,$F37)-INDEX($C$2:$C$7,H$1))))</f>
         <v>19</v>
       </c>
-      <c r="I37" s="21" cm="1">
+      <c r="I37" s="20" cm="1">
         <f t="array" ref="I37">MAX(ABS((INDEX($B$2:$B$7,$F37)-INDEX($B$2:$B$7,I$1))), ABS( (INDEX($C$2:$C$7,$F37)-INDEX($C$2:$C$7,I$1))))</f>
         <v>13</v>
       </c>
-      <c r="J37" s="21" cm="1">
+      <c r="J37" s="20" cm="1">
         <f t="array" ref="J37">MAX(ABS((INDEX($B$2:$B$7,$F37)-INDEX($B$2:$B$7,J$1))), ABS( (INDEX($C$2:$C$7,$F37)-INDEX($C$2:$C$7,J$1))))</f>
         <v>0</v>
       </c>
-      <c r="K37" s="21" cm="1">
+      <c r="K37" s="20" cm="1">
         <f t="array" ref="K37">MAX(ABS((INDEX($B$2:$B$7,$F37)-INDEX($B$2:$B$7,K$1))), ABS( (INDEX($C$2:$C$7,$F37)-INDEX($C$2:$C$7,K$1))))</f>
         <v>22</v>
       </c>
-      <c r="L37" s="21" cm="1">
+      <c r="L37" s="20" cm="1">
         <f t="array" ref="L37">MAX(ABS((INDEX($B$2:$B$7,$F37)-INDEX($B$2:$B$7,L$1))), ABS( (INDEX($C$2:$C$7,$F37)-INDEX($C$2:$C$7,L$1))))</f>
         <v>19</v>
       </c>
@@ -9531,27 +10755,27 @@
       <c r="F38" s="8">
         <v>5</v>
       </c>
-      <c r="G38" s="21" cm="1">
+      <c r="G38" s="20" cm="1">
         <f t="array" ref="G38">MAX(ABS((INDEX($B$2:$B$7,$F38)-INDEX($B$2:$B$7,G$1))), ABS( (INDEX($C$2:$C$7,$F38)-INDEX($C$2:$C$7,G$1))))</f>
         <v>32</v>
       </c>
-      <c r="H38" s="21" cm="1">
+      <c r="H38" s="20" cm="1">
         <f t="array" ref="H38">MAX(ABS((INDEX($B$2:$B$7,$F38)-INDEX($B$2:$B$7,H$1))), ABS( (INDEX($C$2:$C$7,$F38)-INDEX($C$2:$C$7,H$1))))</f>
         <v>14</v>
       </c>
-      <c r="I38" s="21" cm="1">
+      <c r="I38" s="20" cm="1">
         <f t="array" ref="I38">MAX(ABS((INDEX($B$2:$B$7,$F38)-INDEX($B$2:$B$7,I$1))), ABS( (INDEX($C$2:$C$7,$F38)-INDEX($C$2:$C$7,I$1))))</f>
-        <v>27</v>
-      </c>
-      <c r="J38" s="21" cm="1">
+        <v>26</v>
+      </c>
+      <c r="J38" s="20" cm="1">
         <f t="array" ref="J38">MAX(ABS((INDEX($B$2:$B$7,$F38)-INDEX($B$2:$B$7,J$1))), ABS( (INDEX($C$2:$C$7,$F38)-INDEX($C$2:$C$7,J$1))))</f>
         <v>22</v>
       </c>
-      <c r="K38" s="21" cm="1">
+      <c r="K38" s="20" cm="1">
         <f t="array" ref="K38">MAX(ABS((INDEX($B$2:$B$7,$F38)-INDEX($B$2:$B$7,K$1))), ABS( (INDEX($C$2:$C$7,$F38)-INDEX($C$2:$C$7,K$1))))</f>
         <v>0</v>
       </c>
-      <c r="L38" s="21" cm="1">
+      <c r="L38" s="20" cm="1">
         <f t="array" ref="L38">MAX(ABS((INDEX($B$2:$B$7,$F38)-INDEX($B$2:$B$7,L$1))), ABS( (INDEX($C$2:$C$7,$F38)-INDEX($C$2:$C$7,L$1))))</f>
         <v>37</v>
       </c>
@@ -9560,55 +10784,55 @@
       <c r="F39" s="9">
         <v>6</v>
       </c>
-      <c r="G39" s="21" cm="1">
+      <c r="G39" s="20" cm="1">
         <f t="array" ref="G39">MAX(ABS((INDEX($B$2:$B$7,$F39)-INDEX($B$2:$B$7,G$1))), ABS( (INDEX($C$2:$C$7,$F39)-INDEX($C$2:$C$7,G$1))))</f>
         <v>23</v>
       </c>
-      <c r="H39" s="21" cm="1">
+      <c r="H39" s="20" cm="1">
         <f t="array" ref="H39">MAX(ABS((INDEX($B$2:$B$7,$F39)-INDEX($B$2:$B$7,H$1))), ABS( (INDEX($C$2:$C$7,$F39)-INDEX($C$2:$C$7,H$1))))</f>
         <v>23</v>
       </c>
-      <c r="I39" s="21" cm="1">
+      <c r="I39" s="20" cm="1">
         <f t="array" ref="I39">MAX(ABS((INDEX($B$2:$B$7,$F39)-INDEX($B$2:$B$7,I$1))), ABS( (INDEX($C$2:$C$7,$F39)-INDEX($C$2:$C$7,I$1))))</f>
-        <v>10</v>
-      </c>
-      <c r="J39" s="21" cm="1">
+        <v>11</v>
+      </c>
+      <c r="J39" s="20" cm="1">
         <f t="array" ref="J39">MAX(ABS((INDEX($B$2:$B$7,$F39)-INDEX($B$2:$B$7,J$1))), ABS( (INDEX($C$2:$C$7,$F39)-INDEX($C$2:$C$7,J$1))))</f>
         <v>19</v>
       </c>
-      <c r="K39" s="21" cm="1">
+      <c r="K39" s="20" cm="1">
         <f t="array" ref="K39">MAX(ABS((INDEX($B$2:$B$7,$F39)-INDEX($B$2:$B$7,K$1))), ABS( (INDEX($C$2:$C$7,$F39)-INDEX($C$2:$C$7,K$1))))</f>
         <v>37</v>
       </c>
-      <c r="L39" s="21" cm="1">
+      <c r="L39" s="20" cm="1">
         <f t="array" ref="L39">MAX(ABS((INDEX($B$2:$B$7,$F39)-INDEX($B$2:$B$7,L$1))), ABS( (INDEX($C$2:$C$7,$F39)-INDEX($C$2:$C$7,L$1))))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="5:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
     </row>
     <row r="41" spans="5:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="23">
-        <v>2</v>
-      </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
+      <c r="G41" s="22">
+        <v>4</v>
+      </c>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
     </row>
     <row r="42" spans="5:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="19" t="s">
         <v>16</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -9637,238 +10861,238 @@
       <c r="F43" s="4">
         <v>1</v>
       </c>
-      <c r="G43" s="24" cm="1">
+      <c r="G43" s="23" cm="1">
         <f t="array" ref="G43">(ABS(INDEX($B$2:$B$7,$F43)-INDEX($B$2:$B$7,G$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F43)-INDEX($C$2:$C$7,G$1))^$G$41)^(1/$G$41)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="24" cm="1">
+      <c r="H43" s="23" cm="1">
         <f t="array" ref="H43">(ABS(INDEX($B$2:$B$7,$F43)-INDEX($B$2:$B$7,H$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F43)-INDEX($C$2:$C$7,H$1))^$G$41)^(1/$G$41)</f>
-        <v>23.430749027719962</v>
-      </c>
-      <c r="I43" s="24" cm="1">
+        <v>19.861090755912688</v>
+      </c>
+      <c r="I43" s="23" cm="1">
         <f t="array" ref="I43">(ABS(INDEX($B$2:$B$7,$F43)-INDEX($B$2:$B$7,I$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F43)-INDEX($C$2:$C$7,I$1))^$G$41)^(1/$G$41)</f>
-        <v>21.587033144922902</v>
-      </c>
-      <c r="J43" s="24" cm="1">
+        <v>21.034898333915162</v>
+      </c>
+      <c r="J43" s="23" cm="1">
         <f t="array" ref="J43">(ABS(INDEX($B$2:$B$7,$F43)-INDEX($B$2:$B$7,J$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F43)-INDEX($C$2:$C$7,J$1))^$G$41)^(1/$G$41)</f>
-        <v>36.76955262170047</v>
-      </c>
-      <c r="K43" s="24" cm="1">
+        <v>34.24176087224285</v>
+      </c>
+      <c r="K43" s="23" cm="1">
         <f t="array" ref="K43">(ABS(INDEX($B$2:$B$7,$F43)-INDEX($B$2:$B$7,K$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F43)-INDEX($C$2:$C$7,K$1))^$G$41)^(1/$G$41)</f>
-        <v>34.176014981270121</v>
-      </c>
-      <c r="L43" s="24" cm="1">
+        <v>32.157043279064347</v>
+      </c>
+      <c r="L43" s="23" cm="1">
         <f t="array" ref="L43">(ABS(INDEX($B$2:$B$7,$F43)-INDEX($B$2:$B$7,L$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F43)-INDEX($C$2:$C$7,L$1))^$G$41)^(1/$G$41)</f>
-        <v>23.53720459187964</v>
+        <v>23.012831372260919</v>
       </c>
     </row>
     <row r="44" spans="5:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="F44" s="13">
+      <c r="F44" s="5">
         <v>2</v>
       </c>
-      <c r="G44" s="24" cm="1">
+      <c r="G44" s="23" cm="1">
         <f t="array" ref="G44">(ABS(INDEX($B$2:$B$7,$F44)-INDEX($B$2:$B$7,G$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F44)-INDEX($C$2:$C$7,G$1))^$G$41)^(1/$G$41)</f>
-        <v>23.430749027719962</v>
-      </c>
-      <c r="H44" s="24" cm="1">
+        <v>19.861090755912688</v>
+      </c>
+      <c r="H44" s="23" cm="1">
         <f t="array" ref="H44">(ABS(INDEX($B$2:$B$7,$F44)-INDEX($B$2:$B$7,H$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F44)-INDEX($C$2:$C$7,H$1))^$G$41)^(1/$G$41)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="24" cm="1">
+      <c r="I44" s="23" cm="1">
         <f t="array" ref="I44">(ABS(INDEX($B$2:$B$7,$F44)-INDEX($B$2:$B$7,I$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F44)-INDEX($C$2:$C$7,I$1))^$G$41)^(1/$G$41)</f>
-        <v>14.317821063276353</v>
-      </c>
-      <c r="J44" s="24" cm="1">
+        <v>12.183259109213587</v>
+      </c>
+      <c r="J44" s="23" cm="1">
         <f t="array" ref="J44">(ABS(INDEX($B$2:$B$7,$F44)-INDEX($B$2:$B$7,J$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F44)-INDEX($C$2:$C$7,J$1))^$G$41)^(1/$G$41)</f>
-        <v>19.416487838947599</v>
-      </c>
-      <c r="K44" s="24" cm="1">
+        <v>19.009323940636236</v>
+      </c>
+      <c r="K44" s="23" cm="1">
         <f t="array" ref="K44">(ABS(INDEX($B$2:$B$7,$F44)-INDEX($B$2:$B$7,K$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F44)-INDEX($C$2:$C$7,K$1))^$G$41)^(1/$G$41)</f>
-        <v>14.317821063276353</v>
-      </c>
-      <c r="L44" s="24" cm="1">
+        <v>14.007373909719325</v>
+      </c>
+      <c r="L44" s="23" cm="1">
         <f t="array" ref="L44">(ABS(INDEX($B$2:$B$7,$F44)-INDEX($B$2:$B$7,L$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F44)-INDEX($C$2:$C$7,L$1))^$G$41)^(1/$G$41)</f>
-        <v>24.351591323771842</v>
+        <v>23.083704031282512</v>
       </c>
     </row>
     <row r="45" spans="5:12" ht="15" x14ac:dyDescent="0.25">
       <c r="F45" s="6">
         <v>3</v>
       </c>
-      <c r="G45" s="24" cm="1">
+      <c r="G45" s="23" cm="1">
         <f t="array" ref="G45">(ABS(INDEX($B$2:$B$7,$F45)-INDEX($B$2:$B$7,G$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F45)-INDEX($C$2:$C$7,G$1))^$G$41)^(1/$G$41)</f>
-        <v>21.587033144922902</v>
-      </c>
-      <c r="H45" s="24" cm="1">
+        <v>21.034898333915162</v>
+      </c>
+      <c r="H45" s="23" cm="1">
         <f t="array" ref="H45">(ABS(INDEX($B$2:$B$7,$F45)-INDEX($B$2:$B$7,H$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F45)-INDEX($C$2:$C$7,H$1))^$G$41)^(1/$G$41)</f>
-        <v>14.317821063276353</v>
-      </c>
-      <c r="I45" s="24" cm="1">
+        <v>12.183259109213587</v>
+      </c>
+      <c r="I45" s="23" cm="1">
         <f t="array" ref="I45">(ABS(INDEX($B$2:$B$7,$F45)-INDEX($B$2:$B$7,I$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F45)-INDEX($C$2:$C$7,I$1))^$G$41)^(1/$G$41)</f>
         <v>0</v>
       </c>
-      <c r="J45" s="24" cm="1">
+      <c r="J45" s="23" cm="1">
         <f t="array" ref="J45">(ABS(INDEX($B$2:$B$7,$F45)-INDEX($B$2:$B$7,J$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F45)-INDEX($C$2:$C$7,J$1))^$G$41)^(1/$G$41)</f>
-        <v>15.811388300841896</v>
-      </c>
-      <c r="K45" s="24" cm="1">
+        <v>13.442934159493941</v>
+      </c>
+      <c r="K45" s="23" cm="1">
         <f t="array" ref="K45">(ABS(INDEX($B$2:$B$7,$F45)-INDEX($B$2:$B$7,K$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F45)-INDEX($C$2:$C$7,K$1))^$G$41)^(1/$G$41)</f>
-        <v>28.460498941515414</v>
-      </c>
-      <c r="L45" s="24" cm="1">
+        <v>26.092824992943402</v>
+      </c>
+      <c r="L45" s="23" cm="1">
         <f t="array" ref="L45">(ABS(INDEX($B$2:$B$7,$F45)-INDEX($B$2:$B$7,L$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F45)-INDEX($C$2:$C$7,L$1))^$G$41)^(1/$G$41)</f>
-        <v>10.198039027185569</v>
+        <v>11.003004028408638</v>
       </c>
     </row>
     <row r="46" spans="5:12" ht="15" x14ac:dyDescent="0.25">
       <c r="F46" s="7">
         <v>4</v>
       </c>
-      <c r="G46" s="24" cm="1">
+      <c r="G46" s="23" cm="1">
         <f t="array" ref="G46">(ABS(INDEX($B$2:$B$7,$F46)-INDEX($B$2:$B$7,G$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F46)-INDEX($C$2:$C$7,G$1))^$G$41)^(1/$G$41)</f>
-        <v>36.76955262170047</v>
-      </c>
-      <c r="H46" s="24" cm="1">
+        <v>34.24176087224285</v>
+      </c>
+      <c r="H46" s="23" cm="1">
         <f t="array" ref="H46">(ABS(INDEX($B$2:$B$7,$F46)-INDEX($B$2:$B$7,H$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F46)-INDEX($C$2:$C$7,H$1))^$G$41)^(1/$G$41)</f>
-        <v>19.416487838947599</v>
-      </c>
-      <c r="I46" s="24" cm="1">
+        <v>19.009323940636236</v>
+      </c>
+      <c r="I46" s="23" cm="1">
         <f t="array" ref="I46">(ABS(INDEX($B$2:$B$7,$F46)-INDEX($B$2:$B$7,I$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F46)-INDEX($C$2:$C$7,I$1))^$G$41)^(1/$G$41)</f>
-        <v>15.811388300841896</v>
-      </c>
-      <c r="J46" s="24" cm="1">
+        <v>13.442934159493941</v>
+      </c>
+      <c r="J46" s="23" cm="1">
         <f t="array" ref="J46">(ABS(INDEX($B$2:$B$7,$F46)-INDEX($B$2:$B$7,J$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F46)-INDEX($C$2:$C$7,J$1))^$G$41)^(1/$G$41)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="24" cm="1">
+      <c r="K46" s="23" cm="1">
         <f t="array" ref="K46">(ABS(INDEX($B$2:$B$7,$F46)-INDEX($B$2:$B$7,K$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F46)-INDEX($C$2:$C$7,K$1))^$G$41)^(1/$G$41)</f>
-        <v>28.42534080710379</v>
-      </c>
-      <c r="L46" s="24" cm="1">
+        <v>24.133716303282725</v>
+      </c>
+      <c r="L46" s="23" cm="1">
         <f t="array" ref="L46">(ABS(INDEX($B$2:$B$7,$F46)-INDEX($B$2:$B$7,L$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F46)-INDEX($C$2:$C$7,L$1))^$G$41)^(1/$G$41)</f>
-        <v>21.95449840010015</v>
+        <v>19.512528169850331</v>
       </c>
     </row>
     <row r="47" spans="5:12" ht="15" x14ac:dyDescent="0.25">
       <c r="F47" s="8">
         <v>5</v>
       </c>
-      <c r="G47" s="24" cm="1">
+      <c r="G47" s="23" cm="1">
         <f t="array" ref="G47">(ABS(INDEX($B$2:$B$7,$F47)-INDEX($B$2:$B$7,G$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F47)-INDEX($C$2:$C$7,G$1))^$G$41)^(1/$G$41)</f>
-        <v>34.176014981270121</v>
-      </c>
-      <c r="H47" s="24" cm="1">
+        <v>32.157043279064347</v>
+      </c>
+      <c r="H47" s="23" cm="1">
         <f t="array" ref="H47">(ABS(INDEX($B$2:$B$7,$F47)-INDEX($B$2:$B$7,H$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F47)-INDEX($C$2:$C$7,H$1))^$G$41)^(1/$G$41)</f>
-        <v>14.317821063276353</v>
-      </c>
-      <c r="I47" s="24" cm="1">
+        <v>14.007373909719325</v>
+      </c>
+      <c r="I47" s="23" cm="1">
         <f t="array" ref="I47">(ABS(INDEX($B$2:$B$7,$F47)-INDEX($B$2:$B$7,I$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F47)-INDEX($C$2:$C$7,I$1))^$G$41)^(1/$G$41)</f>
-        <v>28.460498941515414</v>
-      </c>
-      <c r="J47" s="24" cm="1">
+        <v>26.092824992943402</v>
+      </c>
+      <c r="J47" s="23" cm="1">
         <f t="array" ref="J47">(ABS(INDEX($B$2:$B$7,$F47)-INDEX($B$2:$B$7,J$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F47)-INDEX($C$2:$C$7,J$1))^$G$41)^(1/$G$41)</f>
-        <v>28.42534080710379</v>
-      </c>
-      <c r="K47" s="24" cm="1">
+        <v>24.133716303282725</v>
+      </c>
+      <c r="K47" s="23" cm="1">
         <f t="array" ref="K47">(ABS(INDEX($B$2:$B$7,$F47)-INDEX($B$2:$B$7,K$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F47)-INDEX($C$2:$C$7,K$1))^$G$41)^(1/$G$41)</f>
         <v>0</v>
       </c>
-      <c r="L47" s="24" cm="1">
+      <c r="L47" s="23" cm="1">
         <f t="array" ref="L47">(ABS(INDEX($B$2:$B$7,$F47)-INDEX($B$2:$B$7,L$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F47)-INDEX($C$2:$C$7,L$1))^$G$41)^(1/$G$41)</f>
-        <v>38.600518131237564</v>
+        <v>37.072050537197981</v>
       </c>
     </row>
     <row r="48" spans="5:12" ht="15" x14ac:dyDescent="0.25">
       <c r="F48" s="9">
         <v>6</v>
       </c>
-      <c r="G48" s="24" cm="1">
+      <c r="G48" s="23" cm="1">
         <f t="array" ref="G48">(ABS(INDEX($B$2:$B$7,$F48)-INDEX($B$2:$B$7,G$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F48)-INDEX($C$2:$C$7,G$1))^$G$41)^(1/$G$41)</f>
-        <v>23.53720459187964</v>
-      </c>
-      <c r="H48" s="24" cm="1">
+        <v>23.012831372260919</v>
+      </c>
+      <c r="H48" s="23" cm="1">
         <f t="array" ref="H48">(ABS(INDEX($B$2:$B$7,$F48)-INDEX($B$2:$B$7,H$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F48)-INDEX($C$2:$C$7,H$1))^$G$41)^(1/$G$41)</f>
-        <v>24.351591323771842</v>
-      </c>
-      <c r="I48" s="24" cm="1">
+        <v>23.083704031282512</v>
+      </c>
+      <c r="I48" s="23" cm="1">
         <f t="array" ref="I48">(ABS(INDEX($B$2:$B$7,$F48)-INDEX($B$2:$B$7,I$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F48)-INDEX($C$2:$C$7,I$1))^$G$41)^(1/$G$41)</f>
-        <v>10.198039027185569</v>
-      </c>
-      <c r="J48" s="24" cm="1">
+        <v>11.003004028408638</v>
+      </c>
+      <c r="J48" s="23" cm="1">
         <f t="array" ref="J48">(ABS(INDEX($B$2:$B$7,$F48)-INDEX($B$2:$B$7,J$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F48)-INDEX($C$2:$C$7,J$1))^$G$41)^(1/$G$41)</f>
-        <v>21.95449840010015</v>
-      </c>
-      <c r="K48" s="24" cm="1">
+        <v>19.512528169850331</v>
+      </c>
+      <c r="K48" s="23" cm="1">
         <f t="array" ref="K48">(ABS(INDEX($B$2:$B$7,$F48)-INDEX($B$2:$B$7,K$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F48)-INDEX($C$2:$C$7,K$1))^$G$41)^(1/$G$41)</f>
-        <v>38.600518131237564</v>
-      </c>
-      <c r="L48" s="24" cm="1">
+        <v>37.072050537197981</v>
+      </c>
+      <c r="L48" s="23" cm="1">
         <f t="array" ref="L48">(ABS(INDEX($B$2:$B$7,$F48)-INDEX($B$2:$B$7,L$1))^$G$41 + ABS(INDEX($C$2:$C$7,$F48)-INDEX($C$2:$C$7,L$1))^$G$41)^(1/$G$41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G49" s="25" cm="1">
+      <c r="G49" s="24" cm="1">
         <f t="array" ref="G49">INDEX($B$2:$B$7,G$51)</f>
         <v>40</v>
       </c>
-      <c r="H49" s="25" cm="1">
+      <c r="H49" s="24" cm="1">
         <f t="array" ref="H49">INDEX($B$2:$B$7,H$51)</f>
         <v>22</v>
       </c>
-      <c r="I49" s="25" cm="1">
+      <c r="I49" s="24" cm="1">
         <f t="array" ref="I49">INDEX($B$2:$B$7,I$51)</f>
-        <v>35</v>
-      </c>
-      <c r="J49" s="25" cm="1">
+        <v>34</v>
+      </c>
+      <c r="J49" s="24" cm="1">
         <f t="array" ref="J49">INDEX($B$2:$B$7,J$51)</f>
         <v>26</v>
       </c>
-      <c r="K49" s="25" cm="1">
+      <c r="K49" s="24" cm="1">
         <f t="array" ref="K49">INDEX($B$2:$B$7,K$51)</f>
         <v>8</v>
       </c>
-      <c r="L49" s="25" cm="1">
+      <c r="L49" s="24" cm="1">
         <f t="array" ref="L49">INDEX($B$2:$B$7,L$51)</f>
         <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
-      <c r="E50" s="26"/>
-      <c r="G50" s="25" cm="1">
+      <c r="E50" s="25"/>
+      <c r="G50" s="24" cm="1">
         <f t="array" ref="G50">INDEX($C$2:$C$7,G$51)</f>
         <v>53</v>
       </c>
-      <c r="H50" s="25" cm="1">
+      <c r="H50" s="24" cm="1">
         <f t="array" ref="H50">INDEX($C$2:$C$7,H$51)</f>
         <v>38</v>
       </c>
-      <c r="I50" s="25" cm="1">
+      <c r="I50" s="24" cm="1">
         <f t="array" ref="I50">INDEX($C$2:$C$7,I$51)</f>
         <v>32</v>
       </c>
-      <c r="J50" s="25" cm="1">
+      <c r="J50" s="24" cm="1">
         <f t="array" ref="J50">INDEX($C$2:$C$7,J$51)</f>
         <v>19</v>
       </c>
-      <c r="K50" s="25" cm="1">
+      <c r="K50" s="24" cm="1">
         <f t="array" ref="K50">INDEX($C$2:$C$7,K$51)</f>
         <v>41</v>
       </c>
-      <c r="L50" s="25" cm="1">
+      <c r="L50" s="24" cm="1">
         <f t="array" ref="L50">INDEX($C$2:$C$7,L$51)</f>
         <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="27" t="s">
         <v>2</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -9894,265 +11118,265 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="29">
+      <c r="B52" s="28">
         <f>_xlfn.COVARIANCE.P(B2:B7,B2:B7)</f>
-        <v>151.88888888888889</v>
-      </c>
-      <c r="C52" s="29">
+        <v>150.13888888888889</v>
+      </c>
+      <c r="C52" s="28">
         <f>_xlfn.COVARIANCE.P(B2:B7,C2:C7)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="25" cm="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D52" s="24" cm="1">
         <f t="array" ref="D52">INDEX(B$2:B$7,$F52)</f>
         <v>40</v>
       </c>
-      <c r="E52" s="30" cm="1">
+      <c r="E52" s="29" cm="1">
         <f t="array" ref="E52">INDEX(C$2:C$7,$F52)</f>
         <v>53</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
       </c>
-      <c r="G52" s="31" cm="1">
+      <c r="G52" s="30" cm="1">
         <f t="array" ref="G52">SQRT(MMULT(MMULT($D52:$E52-TRANSPOSE(G$49:G$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D52:$E52-TRANSPOSE(G$49:G$50))))</f>
         <v>0</v>
       </c>
-      <c r="H52" s="31" cm="1">
+      <c r="H52" s="30" cm="1">
         <f t="array" ref="H52">SQRT(MMULT(MMULT($D52:$E52-TRANSPOSE(H$49:H$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D52:$E52-TRANSPOSE(H$49:H$50))))</f>
-        <v>2.0460621198108155</v>
-      </c>
-      <c r="I52" s="31" cm="1">
+        <v>2.0474800907444921</v>
+      </c>
+      <c r="I52" s="30" cm="1">
         <f t="array" ref="I52">SQRT(MMULT(MMULT($D52:$E52-TRANSPOSE(I$49:I$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D52:$E52-TRANSPOSE(I$49:I$50))))</f>
-        <v>2.0466872262814158</v>
-      </c>
-      <c r="J52" s="31" cm="1">
+        <v>2.0628295856133412</v>
+      </c>
+      <c r="J52" s="30" cm="1">
         <f t="array" ref="J52">SQRT(MMULT(MMULT($D52:$E52-TRANSPOSE(J$49:J$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D52:$E52-TRANSPOSE(J$49:J$50))))</f>
-        <v>3.4408525689323235</v>
-      </c>
-      <c r="K52" s="31" cm="1">
+        <v>3.4381679043395335</v>
+      </c>
+      <c r="K52" s="30" cm="1">
         <f t="array" ref="K52">SQRT(MMULT(MMULT($D52:$E52-TRANSPOSE(K$49:K$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D52:$E52-TRANSPOSE(K$49:K$50))))</f>
-        <v>2.8382809482134581</v>
-      </c>
-      <c r="L52" s="31" cm="1">
+        <v>2.847342287957034</v>
+      </c>
+      <c r="L52" s="30" cm="1">
         <f t="array" ref="L52">SQRT(MMULT(MMULT($D52:$E52-TRANSPOSE(L$49:L$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D52:$E52-TRANSPOSE(L$49:L$50))))</f>
-        <v>2.2342717890441555</v>
+        <v>2.2365480208431632</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="29">
+      <c r="B53" s="28">
         <f>_xlfn.COVARIANCE.P(C2:C7,B2:B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C53" s="29">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C53" s="28">
         <f>_xlfn.COVARIANCE.P(C2:C7,C2:C7)</f>
         <v>109.58333333333333</v>
       </c>
-      <c r="D53" s="25" cm="1">
+      <c r="D53" s="24" cm="1">
         <f t="array" ref="D53">INDEX(B$2:B$7,$F53)</f>
         <v>22</v>
       </c>
-      <c r="E53" s="30" cm="1">
+      <c r="E53" s="29" cm="1">
         <f t="array" ref="E53">INDEX(C$2:C$7,$F53)</f>
         <v>38</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="5">
         <v>2</v>
       </c>
-      <c r="G53" s="31" cm="1">
+      <c r="G53" s="30" cm="1">
         <f t="array" ref="G53">SQRT(MMULT(MMULT($D53:$E53-TRANSPOSE(G$49:G$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D53:$E53-TRANSPOSE(G$49:G$50))))</f>
-        <v>2.0460621198108155</v>
-      </c>
-      <c r="H53" s="31" cm="1">
+        <v>2.0474800907444921</v>
+      </c>
+      <c r="H53" s="30" cm="1">
         <f t="array" ref="H53">SQRT(MMULT(MMULT($D53:$E53-TRANSPOSE(H$49:H$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D53:$E53-TRANSPOSE(H$49:H$50))))</f>
         <v>0</v>
       </c>
-      <c r="I53" s="31" cm="1">
+      <c r="I53" s="30" cm="1">
         <f t="array" ref="I53">SQRT(MMULT(MMULT($D53:$E53-TRANSPOSE(I$49:I$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D53:$E53-TRANSPOSE(I$49:I$50))))</f>
-        <v>1.2004884673150469</v>
-      </c>
-      <c r="J53" s="31" cm="1">
+        <v>1.1369966224954022</v>
+      </c>
+      <c r="J53" s="30" cm="1">
         <f t="array" ref="J53">SQRT(MMULT(MMULT($D53:$E53-TRANSPOSE(J$49:J$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D53:$E53-TRANSPOSE(J$49:J$50))))</f>
-        <v>1.8438103858268955</v>
-      </c>
-      <c r="K53" s="31" cm="1">
+        <v>1.8456229843986602</v>
+      </c>
+      <c r="K53" s="30" cm="1">
         <f t="array" ref="K53">SQRT(MMULT(MMULT($D53:$E53-TRANSPOSE(K$49:K$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D53:$E53-TRANSPOSE(K$49:K$50))))</f>
-        <v>1.1715571898276724</v>
-      </c>
-      <c r="L53" s="31" cm="1">
+        <v>1.1792345730906386</v>
+      </c>
+      <c r="L53" s="30" cm="1">
         <f t="array" ref="L53">SQRT(MMULT(MMULT($D53:$E53-TRANSPOSE(L$49:L$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D53:$E53-TRANSPOSE(L$49:L$50))))</f>
-        <v>2.0166406445396401</v>
+        <v>2.0299180731914732</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="25" cm="1">
+      <c r="D54" s="24" cm="1">
         <f t="array" ref="D54">INDEX(B$2:B$7,$F54)</f>
-        <v>35</v>
-      </c>
-      <c r="E54" s="30" cm="1">
+        <v>34</v>
+      </c>
+      <c r="E54" s="29" cm="1">
         <f t="array" ref="E54">INDEX(C$2:C$7,$F54)</f>
         <v>32</v>
       </c>
       <c r="F54" s="6">
         <v>3</v>
       </c>
-      <c r="G54" s="31" cm="1">
+      <c r="G54" s="30" cm="1">
         <f t="array" ref="G54">SQRT(MMULT(MMULT($D54:$E54-TRANSPOSE(G$49:G$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D54:$E54-TRANSPOSE(G$49:G$50))))</f>
-        <v>2.0466872262814158</v>
-      </c>
-      <c r="H54" s="31" cm="1">
+        <v>2.0628295856133412</v>
+      </c>
+      <c r="H54" s="30" cm="1">
         <f t="array" ref="H54">SQRT(MMULT(MMULT($D54:$E54-TRANSPOSE(H$49:H$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D54:$E54-TRANSPOSE(H$49:H$50))))</f>
-        <v>1.2004884673150469</v>
-      </c>
-      <c r="I54" s="31" cm="1">
+        <v>1.1369966224954022</v>
+      </c>
+      <c r="I54" s="30" cm="1">
         <f t="array" ref="I54">SQRT(MMULT(MMULT($D54:$E54-TRANSPOSE(I$49:I$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D54:$E54-TRANSPOSE(I$49:I$50))))</f>
         <v>0</v>
       </c>
-      <c r="J54" s="31" cm="1">
+      <c r="J54" s="30" cm="1">
         <f t="array" ref="J54">SQRT(MMULT(MMULT($D54:$E54-TRANSPOSE(J$49:J$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D54:$E54-TRANSPOSE(J$49:J$50))))</f>
-        <v>1.4406560616379691</v>
-      </c>
-      <c r="K54" s="31" cm="1">
+        <v>1.4004082215909288</v>
+      </c>
+      <c r="K54" s="30" cm="1">
         <f t="array" ref="K54">SQRT(MMULT(MMULT($D54:$E54-TRANSPOSE(K$49:K$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D54:$E54-TRANSPOSE(K$49:K$50))))</f>
-        <v>2.3534495067372116</v>
-      </c>
-      <c r="L54" s="31" cm="1">
+        <v>2.2931120646090717</v>
+      </c>
+      <c r="L54" s="30" cm="1">
         <f t="array" ref="L54">SQRT(MMULT(MMULT($D54:$E54-TRANSPOSE(L$49:L$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D54:$E54-TRANSPOSE(L$49:L$50))))</f>
-        <v>0.83359337029088443</v>
+        <v>0.91869463188821388</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="D55" s="25" cm="1">
+      <c r="A55" s="26"/>
+      <c r="D55" s="24" cm="1">
         <f t="array" ref="D55">INDEX(B$2:B$7,$F55)</f>
         <v>26</v>
       </c>
-      <c r="E55" s="30" cm="1">
+      <c r="E55" s="29" cm="1">
         <f t="array" ref="E55">INDEX(C$2:C$7,$F55)</f>
         <v>19</v>
       </c>
       <c r="F55" s="7">
         <v>4</v>
       </c>
-      <c r="G55" s="31" cm="1">
+      <c r="G55" s="30" cm="1">
         <f t="array" ref="G55">SQRT(MMULT(MMULT($D55:$E55-TRANSPOSE(G$49:G$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D55:$E55-TRANSPOSE(G$49:G$50))))</f>
-        <v>3.4408525689323235</v>
-      </c>
-      <c r="H55" s="31" cm="1">
+        <v>3.4381679043395335</v>
+      </c>
+      <c r="H55" s="30" cm="1">
         <f t="array" ref="H55">SQRT(MMULT(MMULT($D55:$E55-TRANSPOSE(H$49:H$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D55:$E55-TRANSPOSE(H$49:H$50))))</f>
-        <v>1.8438103858268955</v>
-      </c>
-      <c r="I55" s="31" cm="1">
+        <v>1.8456229843986602</v>
+      </c>
+      <c r="I55" s="30" cm="1">
         <f t="array" ref="I55">SQRT(MMULT(MMULT($D55:$E55-TRANSPOSE(I$49:I$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D55:$E55-TRANSPOSE(I$49:I$50))))</f>
-        <v>1.4406560616379691</v>
-      </c>
-      <c r="J55" s="31" cm="1">
+        <v>1.4004082215909288</v>
+      </c>
+      <c r="J55" s="30" cm="1">
         <f t="array" ref="J55">SQRT(MMULT(MMULT($D55:$E55-TRANSPOSE(J$49:J$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D55:$E55-TRANSPOSE(J$49:J$50))))</f>
         <v>0</v>
       </c>
-      <c r="K55" s="31" cm="1">
+      <c r="K55" s="30" cm="1">
         <f t="array" ref="K55">SQRT(MMULT(MMULT($D55:$E55-TRANSPOSE(K$49:K$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D55:$E55-TRANSPOSE(K$49:K$50))))</f>
-        <v>2.5592710479712855</v>
-      </c>
-      <c r="L55" s="31" cm="1">
+        <v>2.5696203834133917</v>
+      </c>
+      <c r="L55" s="30" cm="1">
         <f t="array" ref="L55">SQRT(MMULT(MMULT($D55:$E55-TRANSPOSE(L$49:L$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D55:$E55-TRANSPOSE(L$49:L$50))))</f>
-        <v>1.8657223508958287</v>
+        <v>1.8691909637085464</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="32" cm="1">
+      <c r="B56" s="31" cm="1">
         <f t="array" ref="B56:C57">MINVERSE(B52:C53)</f>
-        <v>6.5837600585223121E-3</v>
-      </c>
-      <c r="C56" s="32">
-        <v>0</v>
-      </c>
-      <c r="D56" s="25" cm="1">
+        <v>6.6606372938283719E-3</v>
+      </c>
+      <c r="C56" s="31">
+        <v>-3.5455863921519858E-5</v>
+      </c>
+      <c r="D56" s="24" cm="1">
         <f t="array" ref="D56">INDEX(B$2:B$7,$F56)</f>
         <v>8</v>
       </c>
-      <c r="E56" s="30" cm="1">
+      <c r="E56" s="29" cm="1">
         <f t="array" ref="E56">INDEX(C$2:C$7,$F56)</f>
         <v>41</v>
       </c>
       <c r="F56" s="8">
         <v>5</v>
       </c>
-      <c r="G56" s="31" cm="1">
+      <c r="G56" s="30" cm="1">
         <f t="array" ref="G56">SQRT(MMULT(MMULT($D56:$E56-TRANSPOSE(G$49:G$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D56:$E56-TRANSPOSE(G$49:G$50))))</f>
-        <v>2.8382809482134581</v>
-      </c>
-      <c r="H56" s="31" cm="1">
+        <v>2.847342287957034</v>
+      </c>
+      <c r="H56" s="30" cm="1">
         <f t="array" ref="H56">SQRT(MMULT(MMULT($D56:$E56-TRANSPOSE(H$49:H$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D56:$E56-TRANSPOSE(H$49:H$50))))</f>
-        <v>1.1715571898276724</v>
-      </c>
-      <c r="I56" s="31" cm="1">
+        <v>1.1792345730906386</v>
+      </c>
+      <c r="I56" s="30" cm="1">
         <f t="array" ref="I56">SQRT(MMULT(MMULT($D56:$E56-TRANSPOSE(I$49:I$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D56:$E56-TRANSPOSE(I$49:I$50))))</f>
-        <v>2.3534495067372116</v>
-      </c>
-      <c r="J56" s="31" cm="1">
+        <v>2.2931120646090717</v>
+      </c>
+      <c r="J56" s="30" cm="1">
         <f t="array" ref="J56">SQRT(MMULT(MMULT($D56:$E56-TRANSPOSE(J$49:J$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D56:$E56-TRANSPOSE(J$49:J$50))))</f>
-        <v>2.5592710479712855</v>
-      </c>
-      <c r="K56" s="31" cm="1">
+        <v>2.5696203834133917</v>
+      </c>
+      <c r="K56" s="30" cm="1">
         <f t="array" ref="K56">SQRT(MMULT(MMULT($D56:$E56-TRANSPOSE(K$49:K$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D56:$E56-TRANSPOSE(K$49:K$50))))</f>
         <v>0</v>
       </c>
-      <c r="L56" s="31" cm="1">
+      <c r="L56" s="30" cm="1">
         <f t="array" ref="L56">SQRT(MMULT(MMULT($D56:$E56-TRANSPOSE(L$49:L$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D56:$E56-TRANSPOSE(L$49:L$50))))</f>
-        <v>3.1807782113223091</v>
+        <v>3.2017930719114243</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="32">
-        <v>0</v>
-      </c>
-      <c r="C57" s="32">
-        <v>9.125475285171103E-3</v>
-      </c>
-      <c r="D57" s="25" cm="1">
+      <c r="B57" s="31">
+        <v>-3.5455863921519852E-5</v>
+      </c>
+      <c r="C57" s="31">
+        <v>9.1256640236102287E-3</v>
+      </c>
+      <c r="D57" s="24" cm="1">
         <f t="array" ref="D57">INDEX(B$2:B$7,$F57)</f>
         <v>45</v>
       </c>
-      <c r="E57" s="30" cm="1">
+      <c r="E57" s="29" cm="1">
         <f t="array" ref="E57">INDEX(C$2:C$7,$F57)</f>
         <v>30</v>
       </c>
       <c r="F57" s="9">
         <v>6</v>
       </c>
-      <c r="G57" s="31" cm="1">
+      <c r="G57" s="30" cm="1">
         <f t="array" ref="G57">SQRT(MMULT(MMULT($D57:$E57-TRANSPOSE(G$49:G$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D57:$E57-TRANSPOSE(G$49:G$50))))</f>
-        <v>2.2342717890441555</v>
-      </c>
-      <c r="H57" s="31" cm="1">
+        <v>2.2365480208431632</v>
+      </c>
+      <c r="H57" s="30" cm="1">
         <f t="array" ref="H57">SQRT(MMULT(MMULT($D57:$E57-TRANSPOSE(H$49:H$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D57:$E57-TRANSPOSE(H$49:H$50))))</f>
-        <v>2.0166406445396401</v>
-      </c>
-      <c r="I57" s="31" cm="1">
+        <v>2.0299180731914732</v>
+      </c>
+      <c r="I57" s="30" cm="1">
         <f t="array" ref="I57">SQRT(MMULT(MMULT($D57:$E57-TRANSPOSE(I$49:I$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D57:$E57-TRANSPOSE(I$49:I$50))))</f>
-        <v>0.83359337029088443</v>
-      </c>
-      <c r="J57" s="31" cm="1">
+        <v>0.91869463188821388</v>
+      </c>
+      <c r="J57" s="30" cm="1">
         <f t="array" ref="J57">SQRT(MMULT(MMULT($D57:$E57-TRANSPOSE(J$49:J$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D57:$E57-TRANSPOSE(J$49:J$50))))</f>
-        <v>1.8657223508958287</v>
-      </c>
-      <c r="K57" s="31" cm="1">
+        <v>1.8691909637085464</v>
+      </c>
+      <c r="K57" s="30" cm="1">
         <f t="array" ref="K57">SQRT(MMULT(MMULT($D57:$E57-TRANSPOSE(K$49:K$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D57:$E57-TRANSPOSE(K$49:K$50))))</f>
-        <v>3.1807782113223091</v>
-      </c>
-      <c r="L57" s="31" cm="1">
+        <v>3.2017930719114243</v>
+      </c>
+      <c r="L57" s="30" cm="1">
         <f t="array" ref="L57">SQRT(MMULT(MMULT($D57:$E57-TRANSPOSE(L$49:L$50),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE($D57:$E57-TRANSPOSE(L$49:L$50))))</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F59" s="27" t="s">
+      <c r="F59" s="26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10160,26 +11384,26 @@
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="33">
+      <c r="B60" s="32">
         <f>AVERAGE(B2:B7)</f>
-        <v>29.333333333333332</v>
-      </c>
-      <c r="C60" s="33">
+        <v>29.166666666666668</v>
+      </c>
+      <c r="C60" s="32">
         <f>AVERAGE(C2:C7)</f>
         <v>35.5</v>
       </c>
       <c r="F60" s="4">
         <v>1</v>
       </c>
-      <c r="G60" s="34" cm="1">
+      <c r="G60" s="33" cm="1">
         <f t="array" ref="G60">SQRT(MMULT(MMULT((H60:I60-$B$60:$C$60),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE((H60:I60-$B$60:$C$60))))</f>
-        <v>1.8824883518801414</v>
-      </c>
-      <c r="H60" s="25" cm="1">
+        <v>1.8875885989816543</v>
+      </c>
+      <c r="H60" s="24" cm="1">
         <f t="array" ref="H60">INDEX($B$2:$B$7,$F60)</f>
         <v>40</v>
       </c>
-      <c r="I60" s="25" cm="1">
+      <c r="I60" s="24" cm="1">
         <f t="array" ref="I60">INDEX($C$2:$C$7,$F60)</f>
         <v>53</v>
       </c>
@@ -10190,24 +11414,24 @@
       </c>
       <c r="B61" s="2">
         <f>_xlfn.STDEV.P(B2:B7)</f>
-        <v>12.324321031557433</v>
+        <v>12.253117517141867</v>
       </c>
       <c r="C61" s="2">
         <f>_xlfn.STDEV.P(C2:C7)</f>
         <v>10.468205831628136</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="5">
         <v>2</v>
       </c>
-      <c r="G61" s="34" cm="1">
+      <c r="G61" s="33" cm="1">
         <f t="array" ref="G61">SQRT(MMULT(MMULT((H61:I61-$B$60:$C$60),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE((H61:I61-$B$60:$C$60))))</f>
-        <v>0.64116628568706058</v>
-      </c>
-      <c r="H61" s="25" cm="1">
+        <v>0.63277455231481505</v>
+      </c>
+      <c r="H61" s="24" cm="1">
         <f t="array" ref="H61">INDEX($B$2:$B$7,$F61)</f>
         <v>22</v>
       </c>
-      <c r="I61" s="25" cm="1">
+      <c r="I61" s="24" cm="1">
         <f t="array" ref="I61">INDEX($C$2:$C$7,$F61)</f>
         <v>38</v>
       </c>
@@ -10218,7 +11442,7 @@
       </c>
       <c r="B62">
         <f>VARPA(B2:B7)</f>
-        <v>151.88888888888889</v>
+        <v>150.13888888888889</v>
       </c>
       <c r="C62">
         <f>VARPA(C2:C7)</f>
@@ -10227,15 +11451,15 @@
       <c r="F62" s="6">
         <v>3</v>
       </c>
-      <c r="G62" s="34" cm="1">
+      <c r="G62" s="33" cm="1">
         <f t="array" ref="G62">SQRT(MMULT(MMULT((H62:I62-$B$60:$C$60),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE((H62:I62-$B$60:$C$60))))</f>
-        <v>0.56850586893316368</v>
-      </c>
-      <c r="H62" s="25" cm="1">
+        <v>0.5182555954775967</v>
+      </c>
+      <c r="H62" s="24" cm="1">
         <f t="array" ref="H62">INDEX($B$2:$B$7,$F62)</f>
-        <v>35</v>
-      </c>
-      <c r="I62" s="25" cm="1">
+        <v>34</v>
+      </c>
+      <c r="I62" s="24" cm="1">
         <f t="array" ref="I62">INDEX($C$2:$C$7,$F62)</f>
         <v>32</v>
       </c>
@@ -10244,15 +11468,15 @@
       <c r="F63" s="7">
         <v>4</v>
       </c>
-      <c r="G63" s="34" cm="1">
+      <c r="G63" s="33" cm="1">
         <f t="array" ref="G63">SQRT(MMULT(MMULT((H63:I63-$B$60:$C$60),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE((H63:I63-$B$60:$C$60))))</f>
-        <v>1.5992384237276722</v>
-      </c>
-      <c r="H63" s="25" cm="1">
+        <v>1.5961040953800525</v>
+      </c>
+      <c r="H63" s="24" cm="1">
         <f t="array" ref="H63">INDEX($B$2:$B$7,$F63)</f>
         <v>26</v>
       </c>
-      <c r="I63" s="25" cm="1">
+      <c r="I63" s="24" cm="1">
         <f t="array" ref="I63">INDEX($C$2:$C$7,$F63)</f>
         <v>19</v>
       </c>
@@ -10261,15 +11485,15 @@
       <c r="F64" s="8">
         <v>5</v>
       </c>
-      <c r="G64" s="34" cm="1">
+      <c r="G64" s="33" cm="1">
         <f t="array" ref="G64">SQRT(MMULT(MMULT((H64:I64-$B$60:$C$60),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE((H64:I64-$B$60:$C$60))))</f>
-        <v>1.8089742902815034</v>
-      </c>
-      <c r="H64" s="25" cm="1">
+        <v>1.8078874879358471</v>
+      </c>
+      <c r="H64" s="24" cm="1">
         <f t="array" ref="H64">INDEX($B$2:$B$7,$F64)</f>
         <v>8</v>
       </c>
-      <c r="I64" s="25" cm="1">
+      <c r="I64" s="24" cm="1">
         <f t="array" ref="I64">INDEX($C$2:$C$7,$F64)</f>
         <v>41</v>
       </c>
@@ -10278,15 +11502,15 @@
       <c r="F65" s="9">
         <v>6</v>
       </c>
-      <c r="G65" s="34" cm="1">
+      <c r="G65" s="33" cm="1">
         <f t="array" ref="G65">SQRT(MMULT(MMULT((H65:I65-$B$60:$C$60),_xlfn.ANCHORARRAY($B$56)),TRANSPOSE((H65:I65-$B$60:$C$60))))</f>
-        <v>1.3754973490690405</v>
-      </c>
-      <c r="H65" s="25" cm="1">
+        <v>1.3971439912798749</v>
+      </c>
+      <c r="H65" s="24" cm="1">
         <f t="array" ref="H65">INDEX($B$2:$B$7,$F65)</f>
         <v>45</v>
       </c>
-      <c r="I65" s="25" cm="1">
+      <c r="I65" s="24" cm="1">
         <f t="array" ref="I65">INDEX($C$2:$C$7,$F65)</f>
         <v>30</v>
       </c>
